--- a/gd/道具系统/背包基础逻辑.xlsx
+++ b/gd/道具系统/背包基础逻辑.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="11" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="866">
   <si>
     <t>定义产出药物，经验丹等材料的便捷使用（梦幻的红芦羹）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2708,10 +2708,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>直接选中该道具，在道具出售选择列表上显示出售个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>点击除出售数量选择界面其余位置关闭界面，不响应选中操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3278,15 +3274,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>放弃按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>判定按钮状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击回到普通状态，取消显示道具出售选择列表出售个数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3464,6 +3452,34 @@
   </si>
   <si>
     <t>玩家开启宝箱后，若获得金币超出玩家可拥有金币上限则超出部分不给玩家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤销按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>撤销按钮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹出出售数量选择界面，位置覆盖该道具slot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>直接选中该道具，在道具出售选择列表上显示出售个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>取消按钮选中状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售个数默认为玩家刚刚选择的出售道具个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家出售道具时，选中状态再次唤出出售数量选择界面时，默认显示数量为刚刚玩家选择出售数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3975,7 +3991,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="140">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4321,6 +4337,12 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -8330,7 +8352,7 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>266288</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>685765</xdr:rowOff>
+      <xdr:rowOff>744026</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -8340,9 +8362,9 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="10496550" y="15801975"/>
-          <a:ext cx="3628613" cy="600040"/>
+          <a:ext cx="3628613" cy="658301"/>
           <a:chOff x="15211425" y="14668500"/>
-          <a:chExt cx="3628613" cy="600040"/>
+          <a:chExt cx="3628613" cy="658301"/>
         </a:xfrm>
       </xdr:grpSpPr>
       <xdr:pic>
@@ -8547,10 +8569,10 @@
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
           <a:xfrm>
-            <a:off x="18030825" y="14716125"/>
-            <a:ext cx="514286" cy="276190"/>
-            <a:chOff x="15211425" y="15297150"/>
-            <a:chExt cx="514286" cy="276190"/>
+            <a:off x="18030825" y="14687550"/>
+            <a:ext cx="514286" cy="334451"/>
+            <a:chOff x="15211425" y="15268575"/>
+            <a:chExt cx="514286" cy="334451"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:pic>
@@ -8606,8 +8628,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="15240000" y="15297150"/>
-              <a:ext cx="466794" cy="275717"/>
+              <a:off x="15240000" y="15268575"/>
+              <a:ext cx="466794" cy="334451"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8635,8 +8657,11 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-                <a:t>放弃</a:t>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                  <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                  <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                </a:rPr>
+                <a:t>撤销</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -8650,9 +8675,9 @@
         <xdr:grpSpPr>
           <a:xfrm>
             <a:off x="18030825" y="14992350"/>
-            <a:ext cx="514286" cy="276190"/>
+            <a:ext cx="514286" cy="334451"/>
             <a:chOff x="15211425" y="15297150"/>
-            <a:chExt cx="514286" cy="276190"/>
+            <a:chExt cx="514286" cy="334451"/>
           </a:xfrm>
         </xdr:grpSpPr>
         <xdr:pic>
@@ -8709,7 +8734,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="15240000" y="15297150"/>
-              <a:ext cx="466794" cy="275717"/>
+              <a:ext cx="466794" cy="334451"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -8737,7 +8762,10 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                  <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                  <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                </a:rPr>
                 <a:t>确定</a:t>
               </a:r>
             </a:p>
@@ -12455,434 +12483,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>444</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>390113</xdr:colOff>
-      <xdr:row>447</xdr:row>
-      <xdr:rowOff>142840</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="57" name="组合 56"/>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3619500" y="93297375"/>
-          <a:ext cx="3628613" cy="600040"/>
-          <a:chOff x="15211425" y="14668500"/>
-          <a:chExt cx="3628613" cy="600040"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="61" name="图片 60"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="15211425" y="14668500"/>
-            <a:ext cx="3628613" cy="581025"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="62" name="图片 61"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="15278099" y="14706600"/>
-            <a:ext cx="3495676" cy="542925"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="63" name="图片 62"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="15887700" y="14773275"/>
-            <a:ext cx="1209524" cy="400000"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:pic>
-        <xdr:nvPicPr>
-          <xdr:cNvPr id="64" name="图片 63"/>
-          <xdr:cNvPicPr>
-            <a:picLocks noChangeAspect="1"/>
-          </xdr:cNvPicPr>
-        </xdr:nvPicPr>
-        <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
-          <a:stretch>
-            <a:fillRect/>
-          </a:stretch>
-        </xdr:blipFill>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="15363825" y="14849475"/>
-            <a:ext cx="514286" cy="276190"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-        </xdr:spPr>
-      </xdr:pic>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="65" name="组合 64"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="17116425" y="14849475"/>
-            <a:ext cx="514286" cy="276190"/>
-            <a:chOff x="15211425" y="15297150"/>
-            <a:chExt cx="514286" cy="276190"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="76" name="图片 75"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="15211425" y="15297150"/>
-              <a:ext cx="514286" cy="276190"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="77" name="图片 76"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="15278100" y="15325725"/>
-              <a:ext cx="352425" cy="180975"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="78" name="文本框 77"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="15240000" y="15297150"/>
-              <a:ext cx="433965" cy="264560"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
-                <a:t>Max</a:t>
-              </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="66" name="组合 65"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="18030825" y="14716125"/>
-            <a:ext cx="514286" cy="276190"/>
-            <a:chOff x="15211425" y="15297150"/>
-            <a:chExt cx="514286" cy="276190"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="73" name="图片 72"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="15211425" y="15297150"/>
-              <a:ext cx="514286" cy="276190"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="74" name="图片 73"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="15278100" y="15325725"/>
-              <a:ext cx="352425" cy="180975"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="75" name="文本框 74"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="15240000" y="15297150"/>
-              <a:ext cx="466794" cy="275717"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-                <a:t>放弃</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-      <xdr:grpSp>
-        <xdr:nvGrpSpPr>
-          <xdr:cNvPr id="67" name="组合 66"/>
-          <xdr:cNvGrpSpPr/>
-        </xdr:nvGrpSpPr>
-        <xdr:grpSpPr>
-          <a:xfrm>
-            <a:off x="18030825" y="14992350"/>
-            <a:ext cx="514286" cy="276190"/>
-            <a:chOff x="15211425" y="15297150"/>
-            <a:chExt cx="514286" cy="276190"/>
-          </a:xfrm>
-        </xdr:grpSpPr>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="70" name="图片 69"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="15211425" y="15297150"/>
-              <a:ext cx="514286" cy="276190"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="71" name="图片 70"/>
-            <xdr:cNvPicPr>
-              <a:picLocks noChangeAspect="1"/>
-            </xdr:cNvPicPr>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="15278100" y="15325725"/>
-              <a:ext cx="352425" cy="180975"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="72" name="文本框 71"/>
-            <xdr:cNvSpPr txBox="1"/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="15240000" y="15297150"/>
-              <a:ext cx="466794" cy="275717"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:noFill/>
-          </xdr:spPr>
-          <xdr:style>
-            <a:lnRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:lnRef>
-            <a:fillRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:fillRef>
-            <a:effectRef idx="0">
-              <a:scrgbClr r="0" g="0" b="0"/>
-            </a:effectRef>
-            <a:fontRef idx="minor">
-              <a:schemeClr val="tx1"/>
-            </a:fontRef>
-          </xdr:style>
-          <xdr:txBody>
-            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:r>
-                <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
-                <a:t>确定</a:t>
-              </a:r>
-            </a:p>
-          </xdr:txBody>
-        </xdr:sp>
-      </xdr:grpSp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>24</xdr:row>
@@ -13249,6 +12849,440 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>444</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342488</xdr:colOff>
+      <xdr:row>447</xdr:row>
+      <xdr:rowOff>134426</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="116" name="组合 115"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3571875" y="93230700"/>
+          <a:ext cx="3628613" cy="658301"/>
+          <a:chOff x="15211425" y="14668500"/>
+          <a:chExt cx="3628613" cy="658301"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="117" name="图片 116"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15211425" y="14668500"/>
+            <a:ext cx="3628613" cy="581025"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="118" name="图片 117"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15278099" y="14706600"/>
+            <a:ext cx="3495676" cy="542925"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="119" name="图片 118"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15887700" y="14773275"/>
+            <a:ext cx="1209524" cy="400000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="120" name="图片 119"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15363825" y="14849475"/>
+            <a:ext cx="514286" cy="276190"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="121" name="组合 120"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="17116425" y="14849475"/>
+            <a:ext cx="514286" cy="276190"/>
+            <a:chOff x="15211425" y="15297150"/>
+            <a:chExt cx="514286" cy="276190"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="130" name="图片 129"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15211425" y="15297150"/>
+              <a:ext cx="514286" cy="276190"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="131" name="图片 130"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15278100" y="15325725"/>
+              <a:ext cx="352425" cy="180975"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="132" name="文本框 131"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15240000" y="15297150"/>
+              <a:ext cx="433965" cy="264560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+                <a:t>Max</a:t>
+              </a:r>
+              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="122" name="组合 121"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="18030825" y="14687550"/>
+            <a:ext cx="514286" cy="334451"/>
+            <a:chOff x="15211425" y="15268575"/>
+            <a:chExt cx="514286" cy="334451"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="127" name="图片 126"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15211425" y="15297150"/>
+              <a:ext cx="514286" cy="276190"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="128" name="图片 127"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15278100" y="15325725"/>
+              <a:ext cx="352425" cy="180975"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="129" name="文本框 128"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15240000" y="15268575"/>
+              <a:ext cx="466794" cy="334451"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                  <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                  <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                </a:rPr>
+                <a:t>撤销</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="123" name="组合 122"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="18030825" y="14992350"/>
+            <a:ext cx="514286" cy="334451"/>
+            <a:chOff x="15211425" y="15297150"/>
+            <a:chExt cx="514286" cy="334451"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="124" name="图片 123"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15211425" y="15297150"/>
+              <a:ext cx="514286" cy="276190"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="125" name="图片 124"/>
+            <xdr:cNvPicPr>
+              <a:picLocks noChangeAspect="1"/>
+            </xdr:cNvPicPr>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15278100" y="15325725"/>
+              <a:ext cx="352425" cy="180975"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="126" name="文本框 125"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15240000" y="15297150"/>
+              <a:ext cx="466794" cy="334451"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="zh-CN" altLang="en-US" sz="1100">
+                  <a:latin typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                  <a:ea typeface="微软雅黑" panose="020B0503020204020204" pitchFamily="34" charset="-122"/>
+                </a:rPr>
+                <a:t>确定</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -20724,7 +20758,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O36"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H30" sqref="H30"/>
@@ -21187,7 +21221,7 @@
         <v>399</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="I23" s="38"/>
       <c r="J23" s="38"/>
@@ -21208,17 +21242,17 @@
         <v>399</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="I24" s="38"/>
       <c r="J24" s="104" t="s">
+        <v>774</v>
+      </c>
+      <c r="K24" s="104" t="s">
         <v>775</v>
       </c>
-      <c r="K24" s="104" t="s">
+      <c r="L24" s="104" t="s">
         <v>776</v>
-      </c>
-      <c r="L24" s="104" t="s">
-        <v>777</v>
       </c>
       <c r="M24" s="38"/>
       <c r="N24" s="38"/>
@@ -21233,7 +21267,7 @@
       <c r="F25" s="50"/>
       <c r="G25" s="50"/>
       <c r="H25" s="107" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="I25" s="38"/>
       <c r="J25" s="104"/>
@@ -21253,10 +21287,10 @@
       <c r="E26" s="123"/>
       <c r="F26" s="50"/>
       <c r="G26" s="50" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="H26" s="107" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="I26" s="38"/>
       <c r="J26" s="104"/>
@@ -21275,7 +21309,7 @@
       <c r="F27" s="50"/>
       <c r="G27" s="50"/>
       <c r="H27" s="107" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="I27" s="38"/>
       <c r="J27" s="38"/>
@@ -21294,7 +21328,7 @@
       <c r="F28" s="50"/>
       <c r="G28" s="50"/>
       <c r="H28" s="107" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="I28" s="38"/>
       <c r="J28" s="38"/>
@@ -21313,7 +21347,7 @@
       <c r="F29" s="50"/>
       <c r="G29" s="50"/>
       <c r="H29" s="38" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="I29" s="38"/>
       <c r="J29" s="38"/>
@@ -21326,12 +21360,18 @@
     <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="49"/>
       <c r="B30" s="38"/>
-      <c r="C30" s="59"/>
+      <c r="C30" s="59">
+        <v>42290</v>
+      </c>
       <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
+      <c r="E30" s="140"/>
       <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="38"/>
+      <c r="G30" s="50" t="s">
+        <v>839</v>
+      </c>
+      <c r="H30" s="107" t="s">
+        <v>865</v>
+      </c>
       <c r="I30" s="38"/>
       <c r="J30" s="38"/>
       <c r="K30" s="38"/>
@@ -21341,21 +21381,11 @@
       <c r="O30" s="38"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A31" s="49" t="s">
-        <v>400</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>401</v>
-      </c>
-      <c r="C31" s="50" t="s">
-        <v>402</v>
-      </c>
-      <c r="D31" s="50" t="s">
-        <v>403</v>
-      </c>
-      <c r="E31" s="50" t="s">
-        <v>404</v>
-      </c>
+      <c r="A31" s="49"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="50"/>
+      <c r="E31" s="141"/>
       <c r="F31" s="50"/>
       <c r="G31" s="50"/>
       <c r="H31" s="38"/>
@@ -21370,15 +21400,9 @@
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="49"/>
       <c r="B32" s="38"/>
-      <c r="C32" s="59">
-        <v>42287</v>
-      </c>
-      <c r="D32" s="53" t="s">
-        <v>841</v>
-      </c>
-      <c r="E32" s="53" t="s">
-        <v>847</v>
-      </c>
+      <c r="C32" s="59"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="141"/>
       <c r="F32" s="50"/>
       <c r="G32" s="50"/>
       <c r="H32" s="38"/>
@@ -21391,12 +21415,20 @@
       <c r="O32" s="38"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A33" s="49"/>
-      <c r="B33" s="38"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53" t="s">
-        <v>848</v>
+      <c r="A33" s="49" t="s">
+        <v>400</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>401</v>
+      </c>
+      <c r="C33" s="50" t="s">
+        <v>402</v>
+      </c>
+      <c r="D33" s="50" t="s">
+        <v>403</v>
+      </c>
+      <c r="E33" s="50" t="s">
+        <v>404</v>
       </c>
       <c r="F33" s="50"/>
       <c r="G33" s="50"/>
@@ -21409,19 +21441,61 @@
       <c r="N33" s="38"/>
       <c r="O33" s="38"/>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="E34" s="83" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="E35" s="83" t="s">
-        <v>850</v>
-      </c>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34" s="49"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="59">
+        <v>42287</v>
+      </c>
+      <c r="D34" s="53" t="s">
+        <v>838</v>
+      </c>
+      <c r="E34" s="53" t="s">
+        <v>844</v>
+      </c>
+      <c r="F34" s="50"/>
+      <c r="G34" s="50"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="38"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="38"/>
+      <c r="O34" s="38"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A35" s="49"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53" t="s">
+        <v>845</v>
+      </c>
+      <c r="F35" s="50"/>
+      <c r="G35" s="50"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E36" s="83" t="s">
-        <v>851</v>
+        <v>846</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="E37" s="83" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="E38" s="83" t="s">
+        <v>848</v>
       </c>
     </row>
   </sheetData>
@@ -21445,6 +21519,7 @@
     <hyperlink ref="H26" location="具体分页逻辑!F158" display="添加宝箱奖励界面"/>
     <hyperlink ref="H27" location="道具出售!K68" display="修改出售道具个数选择"/>
     <hyperlink ref="H28" location="道具出售!F147" display="添加出售确定按钮IM提示"/>
+    <hyperlink ref="H30" location="道具出售!J74" display="玩家出售道具时，选中状态再次唤出出售数量选择界面时，默认显示数量为刚刚玩家选择出售数量"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21468,7 +21543,7 @@
         <v>42272</v>
       </c>
       <c r="B1" s="63" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -21476,15 +21551,15 @@
         <v>1</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C4" s="64" t="s">
+        <v>695</v>
+      </c>
+      <c r="D4" s="60" t="s">
         <v>696</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -21497,10 +21572,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C8" s="64" t="s">
+        <v>697</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>698</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -21513,10 +21588,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C12" s="64" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -21529,10 +21604,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C16" s="64" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
@@ -21556,7 +21631,7 @@
         <v>409</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.15">
@@ -21564,15 +21639,15 @@
         <v>6</v>
       </c>
       <c r="C23" s="60" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C25" s="64" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.15">
@@ -21585,10 +21660,10 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C29" s="64" t="s">
+        <v>704</v>
+      </c>
+      <c r="D29" s="16" t="s">
         <v>705</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>706</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.15">
@@ -21601,10 +21676,10 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C33" s="64" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.15">
@@ -21617,10 +21692,10 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C37" s="64" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.15">
@@ -21628,15 +21703,15 @@
         <v>10</v>
       </c>
       <c r="C39" s="60" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C41" s="64" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.15">
@@ -21649,10 +21724,10 @@
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C45" s="64" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.15">
@@ -21665,10 +21740,10 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C49" s="64" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
@@ -21687,10 +21762,10 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C71" s="64" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.15">
@@ -21703,10 +21778,10 @@
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C75" s="64" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.15">
@@ -21714,15 +21789,15 @@
         <v>15</v>
       </c>
       <c r="C77" s="60" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C79" s="64" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.15">
@@ -21735,10 +21810,10 @@
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C83" s="64" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.15">
@@ -21754,10 +21829,10 @@
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C87" s="64" t="s">
+        <v>717</v>
+      </c>
+      <c r="D87" s="16" t="s">
         <v>718</v>
-      </c>
-      <c r="D87" s="16" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.15">
@@ -21804,20 +21879,20 @@
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C94" s="64" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D94" s="60" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D95" s="16" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D96" s="16" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.15">
@@ -21830,10 +21905,10 @@
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C100" s="64" t="s">
+        <v>722</v>
+      </c>
+      <c r="D100" s="16" t="s">
         <v>723</v>
-      </c>
-      <c r="D100" s="16" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.15">
@@ -21846,10 +21921,10 @@
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C104" s="64" t="s">
+        <v>724</v>
+      </c>
+      <c r="D104" s="16" t="s">
         <v>725</v>
-      </c>
-      <c r="D104" s="16" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.15">
@@ -21880,10 +21955,10 @@
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C109" s="64" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.15">
@@ -21909,15 +21984,15 @@
         <v>22</v>
       </c>
       <c r="C112" s="60" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C114" s="64" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.15">
@@ -21930,10 +22005,10 @@
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C119" s="64" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.15">
@@ -21946,10 +22021,10 @@
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C123" s="64" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.15">
@@ -21975,20 +22050,20 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C129" s="64" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D129" s="16" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D130" s="16" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D131" s="16" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="133" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.15">
@@ -21996,12 +22071,12 @@
         <v>42275</v>
       </c>
       <c r="B133" s="63" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B134" s="17" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -22010,7 +22085,7 @@
         <v>1</v>
       </c>
       <c r="C136" s="60" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.15">
@@ -22023,10 +22098,10 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C139" s="64" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D139" s="16" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.15">
@@ -22034,7 +22109,7 @@
         <v>2</v>
       </c>
       <c r="C142" s="60" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D142" s="60"/>
       <c r="E142" s="60"/>
@@ -22046,10 +22121,10 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C144" s="64" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D144" s="16" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.15">
@@ -22062,10 +22137,10 @@
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C148" s="64" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D148" s="16" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.15">
@@ -22078,10 +22153,10 @@
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C152" s="64" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D152" s="16" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.15">
@@ -22094,10 +22169,10 @@
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C156" s="64" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D156" s="16" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.15">
@@ -22110,10 +22185,10 @@
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C160" s="64" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D160" s="16" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="161" spans="2:11" x14ac:dyDescent="0.15">
@@ -22121,7 +22196,7 @@
     </row>
     <row r="162" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B162" s="17" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="163" spans="2:11" x14ac:dyDescent="0.15">
@@ -22134,10 +22209,10 @@
     </row>
     <row r="165" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C165" s="64" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D165" s="16" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="167" spans="2:11" x14ac:dyDescent="0.15">
@@ -22145,12 +22220,12 @@
         <v>2</v>
       </c>
       <c r="C167" s="60" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="168" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C168" s="60" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="K168" s="70"/>
     </row>
@@ -22172,10 +22247,10 @@
     </row>
     <row r="172" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C172" s="64" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D172" s="16" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="174" spans="2:11" x14ac:dyDescent="0.15">
@@ -22188,7 +22263,7 @@
     </row>
     <row r="175" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C175" s="60" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="176" spans="2:11" x14ac:dyDescent="0.15">
@@ -22196,10 +22271,10 @@
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C177" s="64" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D177" s="16" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.15">
@@ -22212,10 +22287,10 @@
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C181" s="64" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D181" s="16" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.15">
@@ -22231,20 +22306,20 @@
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C185" s="64" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D185" s="16" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D186" s="16" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D187" s="16" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.15">
@@ -22257,10 +22332,10 @@
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C191" s="64" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D191" s="16" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
   </sheetData>
@@ -24880,7 +24955,7 @@
         <v>533</v>
       </c>
       <c r="F8" s="125" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="G8" s="124"/>
       <c r="H8" s="124"/>
@@ -25196,7 +25271,7 @@
       </c>
       <c r="D37" s="6"/>
       <c r="E37" s="78" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="F37" s="78"/>
       <c r="G37" s="78"/>
@@ -25210,7 +25285,7 @@
       </c>
       <c r="D38" s="6"/>
       <c r="E38" s="105" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="F38" s="106"/>
       <c r="G38" s="106"/>
@@ -25229,7 +25304,7 @@
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="105" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="F39" s="106"/>
       <c r="G39" s="106"/>
@@ -25248,7 +25323,7 @@
       </c>
       <c r="D40" s="6"/>
       <c r="E40" s="105" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F40" s="103"/>
       <c r="G40" s="103"/>
@@ -26010,7 +26085,7 @@
       </c>
       <c r="E104" s="16"/>
       <c r="F104" s="78" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G104" s="78"/>
       <c r="H104" s="78"/>
@@ -26035,13 +26110,13 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A106" s="95" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B106" s="16" t="s">
         <v>658</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.15">
@@ -26073,7 +26148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:Z327"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" topLeftCell="B214" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showWhiteSpace="0" topLeftCell="B220" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I216" sqref="I216"/>
     </sheetView>
   </sheetViews>
@@ -26246,7 +26321,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F42" s="77" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G42" s="78"/>
       <c r="H42" s="78"/>
@@ -26657,7 +26732,7 @@
       <c r="H82" s="22"/>
       <c r="I82" s="23"/>
       <c r="J82" s="23" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="K82" s="23"/>
       <c r="L82" s="23"/>
@@ -27027,7 +27102,7 @@
       <c r="M103" s="23"/>
       <c r="N103" s="23"/>
       <c r="Q103" s="16" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.3">
@@ -27541,7 +27616,7 @@
       <c r="G139" s="27"/>
       <c r="P139" s="8"/>
       <c r="Q139" s="106" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="R139" s="106"/>
       <c r="S139" s="103"/>
@@ -27759,7 +27834,7 @@
       <c r="F155" s="23"/>
       <c r="G155" s="10"/>
       <c r="H155" s="22" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="I155" s="23"/>
       <c r="J155" s="23"/>
@@ -27776,7 +27851,7 @@
       <c r="G156" s="10"/>
       <c r="H156" s="22"/>
       <c r="I156" s="23" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="J156" s="23"/>
       <c r="K156" s="23"/>
@@ -27801,7 +27876,7 @@
       <c r="D158" s="112"/>
       <c r="E158" s="112"/>
       <c r="F158" s="110" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G158" s="111"/>
       <c r="H158" s="113"/>
@@ -27953,7 +28028,7 @@
     <row r="166" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A166" s="28"/>
       <c r="D166" s="112" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E166" s="112"/>
       <c r="F166" s="111"/>
@@ -28012,7 +28087,7 @@
     <row r="169" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A169" s="28"/>
       <c r="D169" s="112" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E169" s="112"/>
       <c r="F169" s="111"/>
@@ -28071,7 +28146,7 @@
     <row r="172" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A172" s="28"/>
       <c r="D172" s="112" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E172" s="112"/>
       <c r="F172" s="111"/>
@@ -28187,7 +28262,7 @@
     <row r="178" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A178" s="28"/>
       <c r="D178" s="112" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="E178" s="112"/>
       <c r="F178" s="111"/>
@@ -28387,7 +28462,7 @@
       <c r="J188" s="111"/>
       <c r="K188" s="111"/>
       <c r="L188" s="111" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="M188" s="111"/>
       <c r="N188" s="111"/>
@@ -28459,7 +28534,7 @@
       <c r="D192" s="112"/>
       <c r="E192" s="112"/>
       <c r="F192" s="118" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G192" s="118"/>
       <c r="H192" s="112"/>
@@ -28481,7 +28556,7 @@
       <c r="E193" s="112"/>
       <c r="F193" s="118"/>
       <c r="G193" s="111" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="H193" s="112"/>
       <c r="I193" s="112"/>
@@ -28501,7 +28576,7 @@
       <c r="D194" s="112"/>
       <c r="E194" s="112"/>
       <c r="F194" s="118" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G194" s="118"/>
       <c r="H194" s="112"/>
@@ -28523,7 +28598,7 @@
       <c r="E195" s="112"/>
       <c r="F195" s="112"/>
       <c r="G195" s="109" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H195" s="109"/>
       <c r="I195" s="109"/>
@@ -28545,7 +28620,7 @@
       <c r="E196" s="112"/>
       <c r="F196" s="112"/>
       <c r="G196" s="109" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="H196" s="109"/>
       <c r="I196" s="109"/>
@@ -28568,7 +28643,7 @@
       <c r="F197" s="112"/>
       <c r="G197" s="109"/>
       <c r="H197" s="109" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I197" s="109"/>
       <c r="J197" s="109"/>
@@ -28590,7 +28665,7 @@
       <c r="F198" s="111"/>
       <c r="G198" s="109"/>
       <c r="H198" s="109" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="I198" s="109"/>
       <c r="J198" s="109"/>
@@ -28613,7 +28688,7 @@
         <v>210</v>
       </c>
       <c r="G199" s="112" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H199" s="112"/>
       <c r="I199" s="112"/>
@@ -28635,7 +28710,7 @@
       <c r="F200" s="112"/>
       <c r="G200" s="112"/>
       <c r="H200" s="111" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I200" s="111"/>
       <c r="J200" s="113"/>
@@ -28674,7 +28749,7 @@
       <c r="E202" s="112"/>
       <c r="F202" s="112"/>
       <c r="G202" s="112" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H202" s="113"/>
       <c r="I202" s="111"/>
@@ -28696,7 +28771,7 @@
       <c r="F203" s="112"/>
       <c r="G203" s="111"/>
       <c r="H203" s="113" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="I203" s="111"/>
       <c r="J203" s="111"/>
@@ -28717,7 +28792,7 @@
       <c r="F204" s="112"/>
       <c r="G204" s="111"/>
       <c r="H204" s="113" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="I204" s="111"/>
       <c r="J204" s="111"/>
@@ -28738,7 +28813,7 @@
       <c r="F205" s="112"/>
       <c r="G205" s="112"/>
       <c r="H205" s="112" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="I205" s="112"/>
       <c r="J205" s="112"/>
@@ -28823,7 +28898,7 @@
       <c r="E209" s="112"/>
       <c r="F209" s="111"/>
       <c r="G209" s="112" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H209" s="112"/>
       <c r="I209" s="112"/>
@@ -28845,7 +28920,7 @@
       <c r="F210" s="111"/>
       <c r="G210" s="112"/>
       <c r="H210" s="112" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I210" s="112"/>
       <c r="J210" s="112"/>
@@ -28930,7 +29005,7 @@
       <c r="E214" s="112"/>
       <c r="F214" s="112"/>
       <c r="G214" s="112" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H214" s="112"/>
       <c r="I214" s="112"/>
@@ -28952,7 +29027,7 @@
       <c r="F215" s="112"/>
       <c r="G215" s="112"/>
       <c r="H215" s="109" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I215" s="118"/>
       <c r="J215" s="118"/>
@@ -28973,7 +29048,7 @@
       <c r="F216" s="112"/>
       <c r="G216" s="112"/>
       <c r="H216" s="118" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I216" s="118"/>
       <c r="J216" s="118"/>
@@ -28994,7 +29069,7 @@
       <c r="F217" s="112"/>
       <c r="G217" s="112"/>
       <c r="H217" s="118" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="I217" s="118"/>
       <c r="J217" s="118"/>
@@ -29165,7 +29240,7 @@
       <c r="E225" s="112"/>
       <c r="F225" s="111"/>
       <c r="G225" s="111" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="H225" s="113"/>
       <c r="I225" s="111"/>
@@ -29272,7 +29347,7 @@
       <c r="G230" s="112"/>
       <c r="H230" s="112"/>
       <c r="I230" s="112" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="J230" s="112"/>
       <c r="K230" s="112"/>
@@ -29309,7 +29384,7 @@
       <c r="D232" s="112"/>
       <c r="E232" s="112"/>
       <c r="F232" s="109" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G232" s="112"/>
       <c r="H232" s="109"/>
@@ -29331,7 +29406,7 @@
       <c r="E233" s="112"/>
       <c r="F233" s="109"/>
       <c r="G233" s="109" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H233" s="109"/>
       <c r="I233" s="109"/>
@@ -29352,7 +29427,7 @@
       <c r="E234" s="112"/>
       <c r="F234" s="118"/>
       <c r="G234" s="118" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H234" s="118"/>
       <c r="I234" s="118"/>
@@ -29373,7 +29448,7 @@
       <c r="E235" s="112"/>
       <c r="F235" s="118"/>
       <c r="G235" s="118" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H235" s="118"/>
       <c r="I235" s="118"/>
@@ -29394,7 +29469,7 @@
       <c r="E236" s="112"/>
       <c r="F236" s="118"/>
       <c r="G236" s="118" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H236" s="118"/>
       <c r="I236" s="118"/>
@@ -29415,7 +29490,7 @@
       <c r="E237" s="112"/>
       <c r="F237" s="118"/>
       <c r="G237" s="118" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="H237" s="118"/>
       <c r="I237" s="118"/>
@@ -29894,7 +29969,7 @@
     <row r="277" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E277" s="17"/>
       <c r="G277" s="103" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H277" s="103"/>
       <c r="I277" s="103"/>
@@ -29931,7 +30006,7 @@
       </c>
       <c r="H279" s="22"/>
       <c r="I279" s="23" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="J279" s="23"/>
       <c r="K279" s="23"/>
@@ -30015,7 +30090,7 @@
     <row r="285" spans="1:18" x14ac:dyDescent="0.3">
       <c r="H285" s="46"/>
       <c r="I285" s="23" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="J285" s="23"/>
       <c r="K285" s="23"/>
@@ -30109,7 +30184,7 @@
     </row>
     <row r="295" spans="1:18" x14ac:dyDescent="0.15">
       <c r="F295" s="98" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G295" s="98"/>
       <c r="H295" s="98"/>
@@ -30195,7 +30270,7 @@
     </row>
     <row r="322" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F322" s="103" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G322" s="103"/>
     </row>
@@ -30241,8 +30316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:AB196"/>
   <sheetViews>
-    <sheetView topLeftCell="C2" workbookViewId="0">
-      <selection activeCell="R88" sqref="R88:Y92"/>
+    <sheetView tabSelected="1" topLeftCell="C53" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -30264,7 +30339,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D28" s="17" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">
@@ -30479,7 +30554,7 @@
     <row r="57" spans="1:14" x14ac:dyDescent="0.15">
       <c r="H57" s="14"/>
       <c r="I57" s="22" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.15">
@@ -30504,7 +30579,7 @@
         <v>550</v>
       </c>
       <c r="L61" s="16" t="s">
-        <v>669</v>
+        <v>862</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
@@ -30517,7 +30592,7 @@
     </row>
     <row r="63" spans="1:14" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A63" s="74" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="64" spans="1:14" x14ac:dyDescent="0.15">
@@ -30545,7 +30620,7 @@
         <v>548</v>
       </c>
       <c r="L68" s="16" t="s">
-        <v>809</v>
+        <v>861</v>
       </c>
     </row>
     <row r="70" spans="1:20" ht="66" x14ac:dyDescent="0.15">
@@ -30567,59 +30642,95 @@
       </c>
     </row>
     <row r="73" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="J73" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="7"/>
-      <c r="O73" s="7"/>
-      <c r="P73" s="7"/>
       <c r="S73" s="22" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="74" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="J74" s="7"/>
-      <c r="K74" s="7" t="s">
-        <v>816</v>
-      </c>
-      <c r="L74" s="7"/>
-      <c r="M74" s="7"/>
-      <c r="N74" s="7"/>
-      <c r="O74" s="7"/>
-      <c r="P74" s="7"/>
+      <c r="J74" s="95" t="s">
+        <v>330</v>
+      </c>
+      <c r="K74" s="95"/>
+      <c r="L74" s="95"/>
+      <c r="M74" s="95"/>
+      <c r="N74" s="95"/>
+      <c r="O74" s="95"/>
+      <c r="P74" s="95"/>
       <c r="S74" s="22" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="75" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="J75" s="95"/>
+      <c r="K75" s="95" t="s">
+        <v>332</v>
+      </c>
+      <c r="L75" s="95"/>
+      <c r="M75" s="95"/>
+      <c r="N75" s="95"/>
+      <c r="O75" s="95"/>
+      <c r="P75" s="95"/>
       <c r="S75" s="16" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="J76" s="95"/>
+      <c r="K76" s="95"/>
+      <c r="L76" s="95" t="s">
+        <v>863</v>
+      </c>
+      <c r="M76" s="95"/>
+      <c r="N76" s="95"/>
+      <c r="O76" s="95"/>
+      <c r="P76" s="95"/>
       <c r="R76" s="14" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A77" s="96"/>
+      <c r="J77" s="95"/>
+      <c r="K77" s="95" t="s">
+        <v>333</v>
+      </c>
+      <c r="L77" s="95"/>
+      <c r="M77" s="95"/>
+      <c r="N77" s="95"/>
+      <c r="O77" s="95"/>
+      <c r="P77" s="95"/>
       <c r="S77" s="16" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A78" s="96" t="s">
-        <v>759</v>
-      </c>
+        <v>758</v>
+      </c>
+      <c r="J78" s="95"/>
+      <c r="K78" s="95"/>
+      <c r="L78" s="95" t="s">
+        <v>808</v>
+      </c>
+      <c r="M78" s="95"/>
+      <c r="N78" s="95"/>
+      <c r="O78" s="95"/>
+      <c r="P78" s="95"/>
       <c r="S78" s="16" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A79" s="96"/>
+      <c r="J79" s="95"/>
+      <c r="K79" s="95"/>
+      <c r="L79" s="95"/>
+      <c r="M79" s="95" t="s">
+        <v>864</v>
+      </c>
+      <c r="N79" s="95"/>
+      <c r="O79" s="95"/>
+      <c r="P79" s="95"/>
       <c r="S79" s="16" t="s">
         <v>335</v>
       </c>
@@ -30632,7 +30743,7 @@
         <v>583</v>
       </c>
       <c r="S80" s="16" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="T80" s="16">
         <v>1</v>
@@ -30698,7 +30809,7 @@
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.15">
       <c r="S85" s="78" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="T85" s="78"/>
       <c r="U85" s="78"/>
@@ -30718,7 +30829,7 @@
         <v>551</v>
       </c>
       <c r="S86" s="78" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="T86" s="78"/>
       <c r="U86" s="78"/>
@@ -30757,12 +30868,12 @@
     </row>
     <row r="92" spans="1:28" x14ac:dyDescent="0.15">
       <c r="S92" s="16" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.15">
       <c r="Q93" s="99" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="R93" s="98"/>
       <c r="S93" s="98"/>
@@ -30834,7 +30945,7 @@
       <c r="Q98" s="98"/>
       <c r="R98" s="98"/>
       <c r="S98" s="98" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="T98" s="98"/>
       <c r="U98" s="98"/>
@@ -30846,7 +30957,7 @@
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.15">
       <c r="Q99" s="114" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="R99" s="64"/>
       <c r="S99" s="64"/>
@@ -30919,7 +31030,7 @@
       <c r="Q104" s="64"/>
       <c r="R104" s="64"/>
       <c r="S104" s="64" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="T104" s="64"/>
       <c r="U104" s="64"/>
@@ -30932,7 +31043,7 @@
     <row r="105" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105" s="75"/>
       <c r="Q105" s="110" t="s">
-        <v>814</v>
+        <v>859</v>
       </c>
       <c r="R105" s="112"/>
       <c r="S105" s="112"/>
@@ -31009,7 +31120,7 @@
       <c r="Q110" s="112"/>
       <c r="R110" s="112"/>
       <c r="S110" s="112" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="T110" s="112"/>
       <c r="U110" s="112"/>
@@ -31259,7 +31370,7 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F147" s="112" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="G147" s="112"/>
       <c r="H147" s="112"/>
@@ -31268,7 +31379,7 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F148" s="16" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.15">
@@ -31351,7 +31462,7 @@
     </row>
     <row r="172" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B172" s="16" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="K172" s="16" t="s">
         <v>511</v>
@@ -31607,7 +31718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O131"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
+    <sheetView topLeftCell="A73" workbookViewId="0">
       <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
@@ -32137,7 +32248,7 @@
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
       <c r="F1" s="36" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G1" s="37"/>
       <c r="H1" s="37"/>
@@ -32147,37 +32258,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="35" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>291</v>
       </c>
       <c r="C2" s="91" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D2" s="91" t="s">
         <v>290</v>
       </c>
       <c r="E2" s="91" t="s">
+        <v>675</v>
+      </c>
+      <c r="F2" s="33" t="s">
         <v>676</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="G2" s="33" t="s">
         <v>677</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="H2" s="33" t="s">
         <v>678</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="I2" s="33" t="s">
         <v>679</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="J2" s="33" t="s">
         <v>680</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="K2" s="33" t="s">
         <v>681</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>682</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -32297,16 +32408,16 @@
     </row>
     <row r="8" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="39" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C8" s="39" t="s">
         <v>289</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="E8" s="43"/>
       <c r="F8" s="43"/>
@@ -32320,16 +32431,16 @@
     </row>
     <row r="9" spans="1:11" s="84" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="39" t="s">
+        <v>816</v>
+      </c>
+      <c r="B9" s="39" t="s">
         <v>819</v>
-      </c>
-      <c r="B9" s="39" t="s">
-        <v>822</v>
       </c>
       <c r="C9" s="39" t="s">
         <v>289</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="E9" s="43"/>
       <c r="F9" s="43"/>
@@ -32500,8 +32611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U552"/>
   <sheetViews>
-    <sheetView topLeftCell="A227" workbookViewId="0">
-      <selection activeCell="L244" sqref="L244"/>
+    <sheetView topLeftCell="A470" workbookViewId="0">
+      <selection activeCell="O452" sqref="O452"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -32511,7 +32622,7 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B1" s="17" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.15">
@@ -32797,13 +32908,13 @@
     </row>
     <row r="97" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C97" s="17" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="98" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C98" s="17"/>
       <c r="D98" s="17" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="99" spans="3:9" x14ac:dyDescent="0.3">
@@ -33210,7 +33321,7 @@
     </row>
     <row r="151" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C151" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E151" s="23"/>
       <c r="F151" s="23"/>
@@ -33420,7 +33531,7 @@
     </row>
     <row r="181" spans="5:15" x14ac:dyDescent="0.15">
       <c r="G181" s="16" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="H181" s="16">
         <v>1</v>
@@ -33518,14 +33629,14 @@
     </row>
     <row r="192" spans="5:15" x14ac:dyDescent="0.15">
       <c r="F192" s="16" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="193" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B193" s="112"/>
       <c r="C193" s="112"/>
       <c r="D193" s="110" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E193" s="111"/>
       <c r="F193" s="113"/>
@@ -33669,7 +33780,7 @@
     </row>
     <row r="201" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B201" s="112" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C201" s="112"/>
       <c r="D201" s="111"/>
@@ -33725,7 +33836,7 @@
     </row>
     <row r="204" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B204" s="112" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C204" s="112"/>
       <c r="D204" s="111"/>
@@ -33781,7 +33892,7 @@
     </row>
     <row r="207" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B207" s="112" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C207" s="112"/>
       <c r="D207" s="111"/>
@@ -33891,7 +34002,7 @@
     </row>
     <row r="213" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B213" s="112" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C213" s="112"/>
       <c r="D213" s="111"/>
@@ -34081,7 +34192,7 @@
       <c r="H223" s="111"/>
       <c r="I223" s="111"/>
       <c r="J223" s="111" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="K223" s="111"/>
       <c r="L223" s="111"/>
@@ -34149,7 +34260,7 @@
       <c r="B227" s="112"/>
       <c r="C227" s="112"/>
       <c r="D227" s="118" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E227" s="118"/>
       <c r="F227" s="112"/>
@@ -34170,7 +34281,7 @@
       <c r="C228" s="112"/>
       <c r="D228" s="118"/>
       <c r="E228" s="111" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="F228" s="112"/>
       <c r="G228" s="112"/>
@@ -34189,7 +34300,7 @@
       <c r="B229" s="112"/>
       <c r="C229" s="112"/>
       <c r="D229" s="118" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="E229" s="118"/>
       <c r="F229" s="112"/>
@@ -34210,7 +34321,7 @@
       <c r="C230" s="112"/>
       <c r="D230" s="112"/>
       <c r="E230" s="109" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="F230" s="109"/>
       <c r="G230" s="109"/>
@@ -34230,7 +34341,7 @@
       <c r="C231" s="112"/>
       <c r="D231" s="112"/>
       <c r="E231" s="109" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="F231" s="109"/>
       <c r="G231" s="109"/>
@@ -34251,7 +34362,7 @@
       <c r="D232" s="112"/>
       <c r="E232" s="109"/>
       <c r="F232" s="109" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G232" s="109"/>
       <c r="H232" s="109"/>
@@ -34271,7 +34382,7 @@
       <c r="D233" s="111"/>
       <c r="E233" s="109"/>
       <c r="F233" s="109" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G233" s="109"/>
       <c r="H233" s="109"/>
@@ -34292,7 +34403,7 @@
         <v>210</v>
       </c>
       <c r="E234" s="112" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F234" s="112"/>
       <c r="G234" s="112"/>
@@ -34313,7 +34424,7 @@
       <c r="D235" s="112"/>
       <c r="E235" s="112"/>
       <c r="F235" s="111" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G235" s="111"/>
       <c r="H235" s="113"/>
@@ -34350,7 +34461,7 @@
       <c r="C237" s="112"/>
       <c r="D237" s="112"/>
       <c r="E237" s="112" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F237" s="113"/>
       <c r="G237" s="111"/>
@@ -34371,7 +34482,7 @@
       <c r="D238" s="112"/>
       <c r="E238" s="111"/>
       <c r="F238" s="113" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="G238" s="111"/>
       <c r="H238" s="111"/>
@@ -34391,7 +34502,7 @@
       <c r="D239" s="112"/>
       <c r="E239" s="111"/>
       <c r="F239" s="113" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="G239" s="111"/>
       <c r="H239" s="111"/>
@@ -34411,7 +34522,7 @@
       <c r="D240" s="112"/>
       <c r="E240" s="112"/>
       <c r="F240" s="112" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G240" s="112"/>
       <c r="H240" s="112"/>
@@ -34492,7 +34603,7 @@
       <c r="C244" s="112"/>
       <c r="D244" s="111"/>
       <c r="E244" s="112" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F244" s="112"/>
       <c r="G244" s="112"/>
@@ -34513,7 +34624,7 @@
       <c r="D245" s="111"/>
       <c r="E245" s="112"/>
       <c r="F245" s="112" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G245" s="112"/>
       <c r="H245" s="112"/>
@@ -34594,7 +34705,7 @@
       <c r="C249" s="112"/>
       <c r="D249" s="112"/>
       <c r="E249" s="112" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F249" s="112"/>
       <c r="G249" s="112"/>
@@ -34615,7 +34726,7 @@
       <c r="D250" s="112"/>
       <c r="E250" s="112"/>
       <c r="F250" s="109" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G250" s="118"/>
       <c r="H250" s="118"/>
@@ -34635,7 +34746,7 @@
       <c r="D251" s="112"/>
       <c r="E251" s="112"/>
       <c r="F251" s="118" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G251" s="118"/>
       <c r="H251" s="118"/>
@@ -34655,7 +34766,7 @@
       <c r="D252" s="112"/>
       <c r="E252" s="112"/>
       <c r="F252" s="118" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G252" s="118"/>
       <c r="H252" s="118"/>
@@ -34818,7 +34929,7 @@
       <c r="C260" s="112"/>
       <c r="D260" s="111"/>
       <c r="E260" s="111" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="F260" s="113"/>
       <c r="G260" s="111"/>
@@ -34920,7 +35031,7 @@
       <c r="E265" s="112"/>
       <c r="F265" s="112"/>
       <c r="G265" s="112" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="H265" s="112"/>
       <c r="I265" s="112"/>
@@ -34955,7 +35066,7 @@
       <c r="B267" s="112"/>
       <c r="C267" s="112"/>
       <c r="D267" s="109" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E267" s="112"/>
       <c r="F267" s="109"/>
@@ -34976,7 +35087,7 @@
       <c r="C268" s="112"/>
       <c r="D268" s="109"/>
       <c r="E268" s="109" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F268" s="109"/>
       <c r="G268" s="109"/>
@@ -34996,7 +35107,7 @@
       <c r="C269" s="112"/>
       <c r="D269" s="118"/>
       <c r="E269" s="118" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="F269" s="118"/>
       <c r="G269" s="118"/>
@@ -35016,7 +35127,7 @@
       <c r="C270" s="112"/>
       <c r="D270" s="118"/>
       <c r="E270" s="118" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F270" s="118"/>
       <c r="G270" s="118"/>
@@ -35036,7 +35147,7 @@
       <c r="C271" s="112"/>
       <c r="D271" s="118"/>
       <c r="E271" s="118" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F271" s="118"/>
       <c r="G271" s="118"/>
@@ -35056,7 +35167,7 @@
       <c r="C272" s="112"/>
       <c r="D272" s="118"/>
       <c r="E272" s="118" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="F272" s="118"/>
       <c r="G272" s="118"/>
@@ -35082,7 +35193,7 @@
     </row>
     <row r="275" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C275" s="1" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E275" s="23"/>
       <c r="F275" s="23"/>
@@ -36274,7 +36385,7 @@
     </row>
     <row r="408" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D408" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="413" spans="4:17" x14ac:dyDescent="0.15">
@@ -36430,7 +36541,7 @@
     </row>
     <row r="437" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D437" s="17" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="442" spans="4:8" x14ac:dyDescent="0.3">
@@ -36443,7 +36554,7 @@
     </row>
     <row r="444" spans="4:8" x14ac:dyDescent="0.15">
       <c r="D444" s="17" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="449" spans="6:17" x14ac:dyDescent="0.15">
@@ -36556,7 +36667,7 @@
     </row>
     <row r="463" spans="6:17" x14ac:dyDescent="0.15">
       <c r="H463" s="78" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I463" s="78"/>
       <c r="J463" s="78"/>
@@ -36570,7 +36681,7 @@
     </row>
     <row r="464" spans="6:17" x14ac:dyDescent="0.15">
       <c r="H464" s="78" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I464" s="78"/>
       <c r="J464" s="78"/>
@@ -36606,12 +36717,12 @@
     </row>
     <row r="470" spans="6:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H470" s="16" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="471" spans="6:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F471" s="99" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G471" s="98"/>
       <c r="H471" s="98"/>
@@ -36683,7 +36794,7 @@
       <c r="F476" s="98"/>
       <c r="G476" s="98"/>
       <c r="H476" s="98" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I476" s="98"/>
       <c r="J476" s="98"/>
@@ -36695,7 +36806,7 @@
     </row>
     <row r="477" spans="6:16" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F477" s="114" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G477" s="64"/>
       <c r="H477" s="64"/>
@@ -36772,7 +36883,7 @@
       <c r="F482" s="64"/>
       <c r="G482" s="64"/>
       <c r="H482" s="64" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="I482" s="64"/>
       <c r="J482" s="64"/>
@@ -36784,7 +36895,7 @@
     </row>
     <row r="483" spans="4:16" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F483" s="110" t="s">
-        <v>814</v>
+        <v>860</v>
       </c>
       <c r="G483" s="112"/>
       <c r="H483" s="112"/>
@@ -36856,7 +36967,7 @@
       <c r="F488" s="112"/>
       <c r="G488" s="112"/>
       <c r="H488" s="112" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="I488" s="112"/>
       <c r="J488" s="112"/>
@@ -37099,7 +37210,7 @@
     </row>
     <row r="528" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F528" s="112" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="G528" s="112"/>
       <c r="H528" s="112"/>
@@ -37216,10 +37327,10 @@
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B2" s="17" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
@@ -37227,7 +37338,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="G3" s="16">
         <v>3</v>
@@ -37238,7 +37349,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="G4" s="16">
         <v>1</v>
@@ -37249,7 +37360,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="G5" s="16">
         <v>0.5</v>
@@ -37260,7 +37371,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="G6" s="16">
         <v>0.5</v>
@@ -37271,7 +37382,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="G7" s="16">
         <v>1</v>
@@ -37279,21 +37390,21 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K8" s="17" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B9" s="17" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="M9" s="16">
         <v>1.5</v>
@@ -37301,7 +37412,7 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C10" s="16" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="G10" s="16">
         <v>0.5</v>
@@ -37309,7 +37420,7 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C11" s="16" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="G11" s="16">
         <v>0.5</v>
@@ -37317,7 +37428,7 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C12" s="16" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="G12" s="16">
         <v>1</v>
@@ -37325,12 +37436,12 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B14" s="17" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C15" s="16" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="G15" s="16">
         <v>2.5</v>

--- a/gd/道具系统/背包基础逻辑.xlsx
+++ b/gd/道具系统/背包基础逻辑.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="866">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="868">
   <si>
     <t>定义产出药物，经验丹等材料的便捷使用（梦幻的红芦羹）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3459,27 +3459,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>撤销按钮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弹出出售数量选择界面，位置覆盖该道具slot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>取消按钮选中状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售个数默认为玩家刚刚选择的出售道具个数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家出售道具时，选中状态再次唤出出售数量选择界面时，默认显示数量为刚刚玩家选择出售数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>直接选中该道具，在道具出售选择列表上显示出售个数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>取消按钮选中状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出售个数默认为玩家刚刚选择的出售道具个数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩家出售道具时，选中状态再次唤出出售数量选择界面时，默认显示数量为刚刚玩家选择出售数量</t>
+    <t>直接选中该道具</t>
+  </si>
+  <si>
+    <t>置灰道具出售个数需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>、</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3991,7 +3998,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4296,6 +4303,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4338,10 +4351,10 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -8039,13 +8052,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>308198</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>104705</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8077,13 +8090,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>276226</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -8126,13 +8139,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>149</xdr:row>
+      <xdr:row>150</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>529211</xdr:colOff>
-      <xdr:row>158</xdr:row>
+      <xdr:row>159</xdr:row>
       <xdr:rowOff>121687</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8164,13 +8177,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>552381</xdr:colOff>
-      <xdr:row>157</xdr:row>
+      <xdr:row>158</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -8202,7 +8215,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>156</xdr:row>
+      <xdr:row>157</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="466794" cy="334451"/>
@@ -8257,7 +8270,7 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>181</xdr:row>
+      <xdr:row>182</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="552381" cy="161925"/>
@@ -8290,7 +8303,7 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>152</xdr:row>
+      <xdr:row>153</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2430089" cy="290336"/>
@@ -8345,13 +8358,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>266288</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>744026</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -8361,7 +8374,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10496550" y="15801975"/>
+          <a:off x="10496550" y="16011525"/>
           <a:ext cx="3628613" cy="658301"/>
           <a:chOff x="15211425" y="14668500"/>
           <a:chExt cx="3628613" cy="658301"/>
@@ -8779,13 +8792,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>495300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
-      <xdr:row>70</xdr:row>
+      <xdr:row>71</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -20758,10 +20771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O38"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -20961,17 +20974,17 @@
     </row>
     <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="49"/>
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="132" t="s">
         <v>379</v>
       </c>
-      <c r="C11" s="131"/>
-      <c r="D11" s="132" t="s">
+      <c r="C11" s="133"/>
+      <c r="D11" s="134" t="s">
         <v>380</v>
       </c>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="133"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="135"/>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
@@ -20986,11 +20999,11 @@
         <v>381</v>
       </c>
       <c r="C12" s="55"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="127"/>
+      <c r="D12" s="128"/>
+      <c r="E12" s="128"/>
+      <c r="F12" s="128"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="129"/>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
       <c r="K12" s="38"/>
@@ -21005,11 +21018,11 @@
         <v>382</v>
       </c>
       <c r="C13" s="56"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="135"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="136"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="138"/>
       <c r="I13" s="38"/>
       <c r="J13" s="38"/>
       <c r="K13" s="38"/>
@@ -21024,11 +21037,11 @@
         <v>384</v>
       </c>
       <c r="C14" s="55"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="138"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="139"/>
+      <c r="D14" s="139"/>
+      <c r="E14" s="140"/>
+      <c r="F14" s="140"/>
+      <c r="G14" s="140"/>
+      <c r="H14" s="141"/>
       <c r="I14" s="38"/>
       <c r="J14" s="38"/>
       <c r="K14" s="38"/>
@@ -21045,11 +21058,11 @@
       <c r="C15" s="56" t="s">
         <v>383</v>
       </c>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="127"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="129"/>
       <c r="I15" s="38"/>
       <c r="J15" s="38"/>
       <c r="K15" s="38"/>
@@ -21064,11 +21077,11 @@
         <v>386</v>
       </c>
       <c r="C16" s="56"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="127"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="129"/>
       <c r="I16" s="38"/>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
@@ -21083,11 +21096,11 @@
         <v>387</v>
       </c>
       <c r="C17" s="56"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="126"/>
-      <c r="H17" s="127"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="129"/>
       <c r="I17" s="38"/>
       <c r="J17" s="38"/>
       <c r="K17" s="38"/>
@@ -21102,11 +21115,11 @@
         <v>388</v>
       </c>
       <c r="C18" s="58"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="129"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="131"/>
       <c r="I18" s="38"/>
       <c r="J18" s="38"/>
       <c r="K18" s="38"/>
@@ -21364,13 +21377,13 @@
         <v>42290</v>
       </c>
       <c r="D30" s="50"/>
-      <c r="E30" s="140"/>
+      <c r="E30" s="126"/>
       <c r="F30" s="50"/>
       <c r="G30" s="50" t="s">
         <v>839</v>
       </c>
       <c r="H30" s="107" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="I30" s="38"/>
       <c r="J30" s="38"/>
@@ -21385,10 +21398,14 @@
       <c r="B31" s="38"/>
       <c r="C31" s="59"/>
       <c r="D31" s="50"/>
-      <c r="E31" s="141"/>
+      <c r="E31" s="143"/>
       <c r="F31" s="50"/>
-      <c r="G31" s="50"/>
-      <c r="H31" s="38"/>
+      <c r="G31" s="50" t="s">
+        <v>839</v>
+      </c>
+      <c r="H31" s="107" t="s">
+        <v>866</v>
+      </c>
       <c r="I31" s="38"/>
       <c r="J31" s="38"/>
       <c r="K31" s="38"/>
@@ -21402,7 +21419,7 @@
       <c r="B32" s="38"/>
       <c r="C32" s="59"/>
       <c r="D32" s="50"/>
-      <c r="E32" s="141"/>
+      <c r="E32" s="127"/>
       <c r="F32" s="50"/>
       <c r="G32" s="50"/>
       <c r="H32" s="38"/>
@@ -21415,21 +21432,11 @@
       <c r="O32" s="38"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A33" s="49" t="s">
-        <v>400</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>401</v>
-      </c>
-      <c r="C33" s="50" t="s">
-        <v>402</v>
-      </c>
-      <c r="D33" s="50" t="s">
-        <v>403</v>
-      </c>
-      <c r="E33" s="50" t="s">
-        <v>404</v>
-      </c>
+      <c r="A33" s="49"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="50"/>
+      <c r="E33" s="127"/>
       <c r="F33" s="50"/>
       <c r="G33" s="50"/>
       <c r="H33" s="38"/>
@@ -21442,16 +21449,20 @@
       <c r="O33" s="38"/>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A34" s="49"/>
-      <c r="B34" s="38"/>
-      <c r="C34" s="59">
-        <v>42287</v>
-      </c>
-      <c r="D34" s="53" t="s">
-        <v>838</v>
-      </c>
-      <c r="E34" s="53" t="s">
-        <v>844</v>
+      <c r="A34" s="49" t="s">
+        <v>400</v>
+      </c>
+      <c r="B34" s="38" t="s">
+        <v>401</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>402</v>
+      </c>
+      <c r="D34" s="50" t="s">
+        <v>403</v>
+      </c>
+      <c r="E34" s="50" t="s">
+        <v>404</v>
       </c>
       <c r="F34" s="50"/>
       <c r="G34" s="50"/>
@@ -21467,10 +21478,14 @@
     <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" s="49"/>
       <c r="B35" s="38"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="53"/>
+      <c r="C35" s="59">
+        <v>42287</v>
+      </c>
+      <c r="D35" s="53" t="s">
+        <v>838</v>
+      </c>
       <c r="E35" s="53" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F35" s="50"/>
       <c r="G35" s="50"/>
@@ -21483,18 +21498,37 @@
       <c r="N35" s="38"/>
       <c r="O35" s="38"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="E36" s="83" t="s">
-        <v>846</v>
-      </c>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A36" s="49"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53" t="s">
+        <v>845</v>
+      </c>
+      <c r="F36" s="50"/>
+      <c r="G36" s="50"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E37" s="83" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E38" s="83" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="E39" s="83" t="s">
         <v>848</v>
       </c>
     </row>
@@ -21520,6 +21554,7 @@
     <hyperlink ref="H27" location="道具出售!K68" display="修改出售道具个数选择"/>
     <hyperlink ref="H28" location="道具出售!F147" display="添加出售确定按钮IM提示"/>
     <hyperlink ref="H30" location="道具出售!J74" display="玩家出售道具时，选中状态再次唤出出售数量选择界面时，默认显示数量为刚刚玩家选择出售数量"/>
+    <hyperlink ref="H31" location="道具出售!K62" display="置灰道具出售个数需求"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30314,10 +30349,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A8:AB196"/>
+  <dimension ref="A8:AB197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C53" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+    <sheetView tabSelected="1" topLeftCell="G83" workbookViewId="0">
+      <selection activeCell="V77" sqref="V77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -30489,7 +30524,7 @@
       <c r="I48" s="22"/>
       <c r="J48" s="22"/>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.15">
       <c r="H49" s="14"/>
       <c r="I49" s="22" t="s">
         <v>236</v>
@@ -30498,7 +30533,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.15">
       <c r="H50" s="14"/>
       <c r="I50" s="22" t="s">
         <v>323</v>
@@ -30507,7 +30542,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.15">
       <c r="H51" s="14"/>
       <c r="I51" s="22" t="s">
         <v>459</v>
@@ -30516,14 +30551,14 @@
         <v>237</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.15">
       <c r="H52" s="14" t="s">
         <v>239</v>
       </c>
       <c r="I52" s="22"/>
       <c r="J52" s="22"/>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
       <c r="H53" s="23"/>
       <c r="I53" s="22" t="s">
         <v>240</v>
@@ -30532,7 +30567,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="H54" s="23"/>
       <c r="I54" s="22" t="s">
         <v>242</v>
@@ -30541,236 +30576,264 @@
         <v>243</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="H55" s="14"/>
       <c r="I55" s="23"/>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
       <c r="H56" s="29" t="s">
         <v>234</v>
       </c>
       <c r="I56" s="22"/>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
       <c r="H57" s="14"/>
       <c r="I57" s="22" t="s">
         <v>813</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
       <c r="H58" s="14"/>
       <c r="I58" s="22"/>
       <c r="J58" s="16" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
       <c r="K59" s="16" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
       <c r="K60" s="16" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="B61" s="16" t="s">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="L61" s="16" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B62" s="16" t="s">
         <v>550</v>
       </c>
-      <c r="L61" s="16" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="L62" s="16" t="s">
+      <c r="K62" s="124"/>
+      <c r="L62" s="124" t="s">
+        <v>864</v>
+      </c>
+      <c r="M62" s="124"/>
+      <c r="N62" s="124"/>
+      <c r="O62" s="124"/>
+      <c r="P62" s="124"/>
+      <c r="Q62" s="124"/>
+      <c r="R62" s="124"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="K63" s="124"/>
+      <c r="L63" s="124" t="s">
         <v>668</v>
       </c>
-      <c r="N62" s="20" t="s">
+      <c r="M63" s="124"/>
+      <c r="N63" s="125" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" ht="49.5" x14ac:dyDescent="0.15">
-      <c r="A63" s="74" t="s">
+      <c r="O63" s="124"/>
+      <c r="P63" s="124"/>
+      <c r="Q63" s="124"/>
+      <c r="R63" s="124"/>
+    </row>
+    <row r="64" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A64" s="74" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A64" s="74" t="s">
-        <v>644</v>
-      </c>
+      <c r="K64" s="124"/>
+      <c r="L64" s="124"/>
+      <c r="M64" s="124"/>
+      <c r="N64" s="124"/>
+      <c r="O64" s="124"/>
+      <c r="P64" s="124"/>
+      <c r="Q64" s="124"/>
+      <c r="R64" s="124"/>
     </row>
     <row r="65" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A65" s="74" t="s">
-        <v>581</v>
-      </c>
+        <v>644</v>
+      </c>
+      <c r="K65" s="124"/>
+      <c r="L65" s="124"/>
+      <c r="M65" s="124"/>
+      <c r="N65" s="124"/>
+      <c r="O65" s="124"/>
+      <c r="P65" s="124"/>
+      <c r="Q65" s="124"/>
+      <c r="R65" s="124"/>
     </row>
     <row r="66" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A66" s="74" t="s">
+        <v>581</v>
+      </c>
+      <c r="K66" s="124"/>
+      <c r="L66" s="124"/>
+      <c r="M66" s="124"/>
+      <c r="N66" s="124"/>
+      <c r="O66" s="124"/>
+      <c r="P66" s="124"/>
+      <c r="Q66" s="124"/>
+      <c r="R66" s="124"/>
+    </row>
+    <row r="67" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A67" s="74" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="K67" s="16" t="s">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="K68" s="16" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="B68" s="16" t="s">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="B69" s="16" t="s">
         <v>548</v>
       </c>
-      <c r="L68" s="16" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="70" spans="1:20" ht="66" x14ac:dyDescent="0.15">
-      <c r="A70" s="74" t="s">
+      <c r="L69" s="16" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="66" x14ac:dyDescent="0.15">
+      <c r="A71" s="74" t="s">
         <v>582</v>
       </c>
-      <c r="Q70" s="16" t="s">
+      <c r="Q71" s="16" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="Q71" s="17" t="s">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="Q72" s="17" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="R72" s="17" t="s">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="R73" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="S73" s="22" t="s">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="S74" s="22" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="J74" s="95" t="s">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="J75" s="95" t="s">
         <v>330</v>
       </c>
-      <c r="K74" s="95"/>
-      <c r="L74" s="95"/>
-      <c r="M74" s="95"/>
-      <c r="N74" s="95"/>
-      <c r="O74" s="95"/>
-      <c r="P74" s="95"/>
-      <c r="S74" s="22" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="J75" s="95"/>
-      <c r="K75" s="95" t="s">
-        <v>332</v>
-      </c>
+      <c r="K75" s="95"/>
       <c r="L75" s="95"/>
       <c r="M75" s="95"/>
       <c r="N75" s="95"/>
       <c r="O75" s="95"/>
       <c r="P75" s="95"/>
-      <c r="S75" s="16" t="s">
-        <v>249</v>
+      <c r="S75" s="22" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="76" spans="1:20" x14ac:dyDescent="0.15">
       <c r="J76" s="95"/>
-      <c r="K76" s="95"/>
-      <c r="L76" s="95" t="s">
-        <v>863</v>
-      </c>
+      <c r="K76" s="95" t="s">
+        <v>332</v>
+      </c>
+      <c r="L76" s="95"/>
       <c r="M76" s="95"/>
       <c r="N76" s="95"/>
       <c r="O76" s="95"/>
       <c r="P76" s="95"/>
-      <c r="R76" s="14" t="s">
-        <v>234</v>
+      <c r="S76" s="16" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="77" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A77" s="96"/>
       <c r="J77" s="95"/>
-      <c r="K77" s="95" t="s">
-        <v>333</v>
-      </c>
-      <c r="L77" s="95"/>
+      <c r="K77" s="95"/>
+      <c r="L77" s="95" t="s">
+        <v>861</v>
+      </c>
       <c r="M77" s="95"/>
       <c r="N77" s="95"/>
       <c r="O77" s="95"/>
       <c r="P77" s="95"/>
-      <c r="S77" s="16" t="s">
-        <v>334</v>
+      <c r="R77" s="14" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="78" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A78" s="96" t="s">
-        <v>758</v>
-      </c>
+      <c r="A78" s="96"/>
       <c r="J78" s="95"/>
-      <c r="K78" s="95"/>
-      <c r="L78" s="95" t="s">
-        <v>808</v>
-      </c>
+      <c r="K78" s="95" t="s">
+        <v>333</v>
+      </c>
+      <c r="L78" s="95"/>
       <c r="M78" s="95"/>
       <c r="N78" s="95"/>
       <c r="O78" s="95"/>
       <c r="P78" s="95"/>
       <c r="S78" s="16" t="s">
-        <v>250</v>
+        <v>334</v>
       </c>
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A79" s="96"/>
+      <c r="A79" s="96" t="s">
+        <v>758</v>
+      </c>
       <c r="J79" s="95"/>
       <c r="K79" s="95"/>
-      <c r="L79" s="95"/>
-      <c r="M79" s="95" t="s">
-        <v>864</v>
-      </c>
+      <c r="L79" s="95" t="s">
+        <v>808</v>
+      </c>
+      <c r="M79" s="95"/>
       <c r="N79" s="95"/>
       <c r="O79" s="95"/>
       <c r="P79" s="95"/>
       <c r="S79" s="16" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="80" spans="1:20" x14ac:dyDescent="0.15">
+      <c r="A80" s="96"/>
+      <c r="J80" s="95"/>
+      <c r="K80" s="95"/>
+      <c r="L80" s="95"/>
+      <c r="M80" s="95" t="s">
+        <v>862</v>
+      </c>
+      <c r="N80" s="95"/>
+      <c r="O80" s="95"/>
+      <c r="P80" s="95"/>
+      <c r="S80" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="T79" s="16" t="s">
+      <c r="T80" s="16" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A80" s="74" t="s">
+    <row r="81" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="A81" s="74" t="s">
         <v>583</v>
       </c>
-      <c r="S80" s="16" t="s">
+      <c r="S81" s="16" t="s">
         <v>809</v>
       </c>
-      <c r="T80" s="16">
+      <c r="T81" s="16">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:28" ht="33" x14ac:dyDescent="0.15">
-      <c r="A81" s="76" t="s">
+    <row r="82" spans="1:28" ht="33" x14ac:dyDescent="0.15">
+      <c r="A82" s="76" t="s">
         <v>642</v>
       </c>
-      <c r="S81" s="78" t="s">
+      <c r="S82" s="78" t="s">
         <v>595</v>
       </c>
-      <c r="T81" s="78"/>
-      <c r="U81" s="78"/>
-      <c r="V81" s="78"/>
-      <c r="W81" s="78"/>
-      <c r="X81" s="79"/>
-      <c r="Y81" s="79"/>
-      <c r="Z81" s="79"/>
-      <c r="AA81" s="79"/>
-    </row>
-    <row r="82" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="A82" s="76"/>
-      <c r="S82" s="78"/>
-      <c r="T82" s="78" t="s">
-        <v>628</v>
-      </c>
+      <c r="T82" s="78"/>
       <c r="U82" s="78"/>
       <c r="V82" s="78"/>
       <c r="W82" s="78"/>
@@ -30781,10 +30844,10 @@
     </row>
     <row r="83" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A83" s="76"/>
-      <c r="S83" s="78" t="s">
-        <v>626</v>
-      </c>
-      <c r="T83" s="78"/>
+      <c r="S83" s="78"/>
+      <c r="T83" s="78" t="s">
+        <v>628</v>
+      </c>
       <c r="U83" s="78"/>
       <c r="V83" s="78"/>
       <c r="W83" s="78"/>
@@ -30795,10 +30858,10 @@
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A84" s="76"/>
-      <c r="S84" s="78"/>
-      <c r="T84" s="78" t="s">
-        <v>629</v>
-      </c>
+      <c r="S84" s="78" t="s">
+        <v>626</v>
+      </c>
+      <c r="T84" s="78"/>
       <c r="U84" s="78"/>
       <c r="V84" s="78"/>
       <c r="W84" s="78"/>
@@ -30808,88 +30871,93 @@
       <c r="AA84" s="79"/>
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="S85" s="78" t="s">
-        <v>670</v>
-      </c>
-      <c r="T85" s="78"/>
+      <c r="A85" s="76"/>
+      <c r="S85" s="78"/>
+      <c r="T85" s="78" t="s">
+        <v>629</v>
+      </c>
       <c r="U85" s="78"/>
       <c r="V85" s="78"/>
       <c r="W85" s="78"/>
-      <c r="X85" s="78"/>
-      <c r="Y85" s="78"/>
-      <c r="Z85" s="78"/>
-      <c r="AA85" s="78"/>
-      <c r="AB85" s="78"/>
-    </row>
-    <row r="86" spans="1:28" ht="66" x14ac:dyDescent="0.15">
-      <c r="A86" s="74" t="s">
-        <v>584</v>
-      </c>
-      <c r="B86" s="16" t="s">
-        <v>551</v>
-      </c>
+      <c r="X85" s="79"/>
+      <c r="Y85" s="79"/>
+      <c r="Z85" s="79"/>
+      <c r="AA85" s="79"/>
+    </row>
+    <row r="86" spans="1:28" x14ac:dyDescent="0.15">
       <c r="S86" s="78" t="s">
-        <v>769</v>
+        <v>670</v>
       </c>
       <c r="T86" s="78"/>
       <c r="U86" s="78"/>
       <c r="V86" s="78"/>
       <c r="W86" s="78"/>
       <c r="X86" s="78"/>
-    </row>
-    <row r="87" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Y86" s="78"/>
+      <c r="Z86" s="78"/>
+      <c r="AA86" s="78"/>
+      <c r="AB86" s="78"/>
+    </row>
+    <row r="87" spans="1:28" ht="66" x14ac:dyDescent="0.15">
+      <c r="A87" s="74" t="s">
+        <v>584</v>
+      </c>
       <c r="B87" s="16" t="s">
+        <v>551</v>
+      </c>
+      <c r="S87" s="78" t="s">
+        <v>769</v>
+      </c>
+      <c r="T87" s="78"/>
+      <c r="U87" s="78"/>
+      <c r="V87" s="78"/>
+      <c r="W87" s="78"/>
+      <c r="X87" s="78"/>
+    </row>
+    <row r="88" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="B88" s="16" t="s">
         <v>549</v>
       </c>
-      <c r="Q87" s="17" t="s">
+      <c r="Q88" s="17" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="88" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="Q88" s="17"/>
-      <c r="R88" s="17" t="s">
+    <row r="89" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Q89" s="17"/>
+      <c r="R89" s="17" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="89" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="S89" s="22" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="90" spans="1:28" x14ac:dyDescent="0.15">
       <c r="S90" s="22" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="91" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="S91" s="22" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="91" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="R91" s="14" t="s">
+    <row r="92" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="R92" s="14" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="92" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="S92" s="16" t="s">
+    <row r="93" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="S93" s="16" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="93" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="Q93" s="99" t="s">
+      <c r="U93" s="124"/>
+      <c r="V93" s="124"/>
+      <c r="W93" s="124"/>
+      <c r="X93" s="124"/>
+      <c r="Y93" s="124"/>
+    </row>
+    <row r="94" spans="1:28" x14ac:dyDescent="0.15">
+      <c r="Q94" s="99" t="s">
         <v>771</v>
       </c>
-      <c r="R93" s="98"/>
-      <c r="S93" s="98"/>
-      <c r="T93" s="98"/>
-      <c r="U93" s="98"/>
-      <c r="V93" s="98"/>
-      <c r="W93" s="98"/>
-      <c r="X93" s="98"/>
-      <c r="Y93" s="98"/>
-      <c r="Z93" s="98"/>
-    </row>
-    <row r="94" spans="1:28" x14ac:dyDescent="0.15">
-      <c r="Q94" s="98"/>
-      <c r="R94" s="99" t="s">
-        <v>37</v>
-      </c>
+      <c r="R94" s="98"/>
       <c r="S94" s="98"/>
       <c r="T94" s="98"/>
       <c r="U94" s="98"/>
@@ -30901,10 +30969,10 @@
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.15">
       <c r="Q95" s="98"/>
-      <c r="R95" s="98"/>
-      <c r="S95" s="100" t="s">
-        <v>236</v>
-      </c>
+      <c r="R95" s="99" t="s">
+        <v>37</v>
+      </c>
+      <c r="S95" s="98"/>
       <c r="T95" s="98"/>
       <c r="U95" s="98"/>
       <c r="V95" s="98"/>
@@ -30917,7 +30985,7 @@
       <c r="Q96" s="98"/>
       <c r="R96" s="98"/>
       <c r="S96" s="100" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="T96" s="98"/>
       <c r="U96" s="98"/>
@@ -30929,10 +30997,10 @@
     </row>
     <row r="97" spans="1:26" x14ac:dyDescent="0.15">
       <c r="Q97" s="98"/>
-      <c r="R97" s="101" t="s">
-        <v>458</v>
-      </c>
-      <c r="S97" s="98"/>
+      <c r="R97" s="98"/>
+      <c r="S97" s="100" t="s">
+        <v>238</v>
+      </c>
       <c r="T97" s="98"/>
       <c r="U97" s="98"/>
       <c r="V97" s="98"/>
@@ -30943,10 +31011,10 @@
     </row>
     <row r="98" spans="1:26" x14ac:dyDescent="0.15">
       <c r="Q98" s="98"/>
-      <c r="R98" s="98"/>
-      <c r="S98" s="98" t="s">
-        <v>810</v>
-      </c>
+      <c r="R98" s="101" t="s">
+        <v>458</v>
+      </c>
+      <c r="S98" s="98"/>
       <c r="T98" s="98"/>
       <c r="U98" s="98"/>
       <c r="V98" s="98"/>
@@ -30956,24 +31024,24 @@
       <c r="Z98" s="98"/>
     </row>
     <row r="99" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="Q99" s="114" t="s">
+      <c r="Q99" s="98"/>
+      <c r="R99" s="98"/>
+      <c r="S99" s="98" t="s">
+        <v>810</v>
+      </c>
+      <c r="T99" s="98"/>
+      <c r="U99" s="98"/>
+      <c r="V99" s="98"/>
+      <c r="W99" s="98"/>
+      <c r="X99" s="98"/>
+      <c r="Y99" s="98"/>
+      <c r="Z99" s="98"/>
+    </row>
+    <row r="100" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="Q100" s="114" t="s">
         <v>811</v>
       </c>
-      <c r="R99" s="64"/>
-      <c r="S99" s="64"/>
-      <c r="T99" s="64"/>
-      <c r="U99" s="64"/>
-      <c r="V99" s="64"/>
-      <c r="W99" s="64"/>
-      <c r="X99" s="64"/>
-      <c r="Y99" s="64"/>
-      <c r="Z99" s="64"/>
-    </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="Q100" s="64"/>
-      <c r="R100" s="114" t="s">
-        <v>37</v>
-      </c>
+      <c r="R100" s="64"/>
       <c r="S100" s="64"/>
       <c r="T100" s="64"/>
       <c r="U100" s="64"/>
@@ -30985,10 +31053,10 @@
     </row>
     <row r="101" spans="1:26" x14ac:dyDescent="0.15">
       <c r="Q101" s="64"/>
-      <c r="R101" s="64"/>
-      <c r="S101" s="115" t="s">
-        <v>236</v>
-      </c>
+      <c r="R101" s="114" t="s">
+        <v>37</v>
+      </c>
+      <c r="S101" s="64"/>
       <c r="T101" s="64"/>
       <c r="U101" s="64"/>
       <c r="V101" s="64"/>
@@ -31001,7 +31069,7 @@
       <c r="Q102" s="64"/>
       <c r="R102" s="64"/>
       <c r="S102" s="115" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="T102" s="64"/>
       <c r="U102" s="64"/>
@@ -31013,10 +31081,10 @@
     </row>
     <row r="103" spans="1:26" x14ac:dyDescent="0.15">
       <c r="Q103" s="64"/>
-      <c r="R103" s="116" t="s">
-        <v>458</v>
-      </c>
-      <c r="S103" s="64"/>
+      <c r="R103" s="64"/>
+      <c r="S103" s="115" t="s">
+        <v>238</v>
+      </c>
       <c r="T103" s="64"/>
       <c r="U103" s="64"/>
       <c r="V103" s="64"/>
@@ -31025,13 +31093,12 @@
       <c r="Y103" s="64"/>
       <c r="Z103" s="64"/>
     </row>
-    <row r="104" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="75"/>
+    <row r="104" spans="1:26" x14ac:dyDescent="0.15">
       <c r="Q104" s="64"/>
-      <c r="R104" s="64"/>
-      <c r="S104" s="64" t="s">
-        <v>812</v>
-      </c>
+      <c r="R104" s="116" t="s">
+        <v>458</v>
+      </c>
+      <c r="S104" s="64"/>
       <c r="T104" s="64"/>
       <c r="U104" s="64"/>
       <c r="V104" s="64"/>
@@ -31042,25 +31109,25 @@
     </row>
     <row r="105" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A105" s="75"/>
-      <c r="Q105" s="110" t="s">
-        <v>859</v>
-      </c>
-      <c r="R105" s="112"/>
-      <c r="S105" s="112"/>
-      <c r="T105" s="112"/>
-      <c r="U105" s="112"/>
-      <c r="V105" s="112"/>
-      <c r="W105" s="112"/>
-      <c r="X105" s="112"/>
-      <c r="Y105" s="112"/>
-      <c r="Z105" s="112"/>
+      <c r="Q105" s="64"/>
+      <c r="R105" s="64"/>
+      <c r="S105" s="64" t="s">
+        <v>812</v>
+      </c>
+      <c r="T105" s="64"/>
+      <c r="U105" s="64"/>
+      <c r="V105" s="64"/>
+      <c r="W105" s="64"/>
+      <c r="X105" s="64"/>
+      <c r="Y105" s="64"/>
+      <c r="Z105" s="64"/>
     </row>
     <row r="106" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="75"/>
-      <c r="Q106" s="110"/>
-      <c r="R106" s="110" t="s">
-        <v>37</v>
-      </c>
+      <c r="Q106" s="110" t="s">
+        <v>859</v>
+      </c>
+      <c r="R106" s="112"/>
       <c r="S106" s="112"/>
       <c r="T106" s="112"/>
       <c r="U106" s="112"/>
@@ -31072,11 +31139,11 @@
     </row>
     <row r="107" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A107" s="75"/>
-      <c r="Q107" s="112"/>
-      <c r="R107" s="112"/>
-      <c r="S107" s="113" t="s">
-        <v>236</v>
-      </c>
+      <c r="Q107" s="110"/>
+      <c r="R107" s="110" t="s">
+        <v>37</v>
+      </c>
+      <c r="S107" s="112"/>
       <c r="T107" s="112"/>
       <c r="U107" s="112"/>
       <c r="V107" s="112"/>
@@ -31090,7 +31157,7 @@
       <c r="Q108" s="112"/>
       <c r="R108" s="112"/>
       <c r="S108" s="113" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="T108" s="112"/>
       <c r="U108" s="112"/>
@@ -31103,10 +31170,10 @@
     <row r="109" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A109" s="75"/>
       <c r="Q109" s="112"/>
-      <c r="R109" s="117" t="s">
-        <v>458</v>
-      </c>
-      <c r="S109" s="112"/>
+      <c r="R109" s="112"/>
+      <c r="S109" s="113" t="s">
+        <v>238</v>
+      </c>
       <c r="T109" s="112"/>
       <c r="U109" s="112"/>
       <c r="V109" s="112"/>
@@ -31118,10 +31185,10 @@
     <row r="110" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A110" s="75"/>
       <c r="Q110" s="112"/>
-      <c r="R110" s="112"/>
-      <c r="S110" s="112" t="s">
-        <v>814</v>
-      </c>
+      <c r="R110" s="117" t="s">
+        <v>458</v>
+      </c>
+      <c r="S110" s="112"/>
       <c r="T110" s="112"/>
       <c r="U110" s="112"/>
       <c r="V110" s="112"/>
@@ -31130,357 +31197,358 @@
       <c r="Y110" s="112"/>
       <c r="Z110" s="112"/>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="A111" s="74" t="s">
+    <row r="111" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="75"/>
+      <c r="Q111" s="112"/>
+      <c r="R111" s="112"/>
+      <c r="S111" s="112" t="s">
+        <v>814</v>
+      </c>
+      <c r="T111" s="112"/>
+      <c r="U111" s="112"/>
+      <c r="V111" s="112"/>
+      <c r="W111" s="124"/>
+      <c r="X111" s="124"/>
+      <c r="Y111" s="124"/>
+      <c r="Z111" s="124"/>
+    </row>
+    <row r="112" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A112" s="74" t="s">
         <v>641</v>
       </c>
-      <c r="D111" s="17" t="s">
+      <c r="D112" s="17" t="s">
         <v>460</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.15">
-      <c r="E112" s="14" t="s">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E113" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="F112" s="22"/>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E113" s="14"/>
-      <c r="F113" s="22" t="s">
+      <c r="F113" s="22"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E114" s="14"/>
+      <c r="F114" s="22" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E114" s="14" t="s">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E115" s="14" t="s">
         <v>456</v>
       </c>
-      <c r="F114" s="22"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E115" s="14"/>
-      <c r="F115" s="22" t="s">
+      <c r="F115" s="22"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E116" s="14"/>
+      <c r="F116" s="22" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E116" s="14" t="s">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E117" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="F116" s="22"/>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A117" s="74" t="s">
+      <c r="F117" s="22"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" s="74" t="s">
         <v>585</v>
       </c>
-      <c r="E117" s="14"/>
-      <c r="F117" s="23" t="s">
+      <c r="E118" s="14"/>
+      <c r="F118" s="23" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E118" s="14" t="s">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E119" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="F118" s="22"/>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E119" s="14"/>
-      <c r="F119" s="23" t="s">
+      <c r="F119" s="22"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E120" s="14"/>
+      <c r="F120" s="23" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E120" s="14" t="s">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E121" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="F120" s="22"/>
-      <c r="G120" s="22"/>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E121" s="14"/>
-      <c r="F121" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="G121" s="26" t="s">
-        <v>237</v>
-      </c>
+      <c r="F121" s="22"/>
+      <c r="G121" s="22"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E122" s="14"/>
       <c r="F122" s="22" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="G122" s="26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E123" s="14" t="s">
+      <c r="E123" s="14"/>
+      <c r="F123" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="G123" s="26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E124" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="F123" s="22"/>
-      <c r="G123" s="22"/>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E124" s="23"/>
-      <c r="F124" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="G124" s="22" t="s">
-        <v>241</v>
-      </c>
+      <c r="F124" s="22"/>
+      <c r="G124" s="22"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E125" s="23"/>
       <c r="F125" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="G125" s="22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E126" s="23"/>
+      <c r="F126" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="G125" s="20" t="s">
+      <c r="G126" s="20" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E126" s="14"/>
-      <c r="F126" s="23"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E127" s="14" t="s">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E127" s="14"/>
+      <c r="F127" s="23"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E128" s="14" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F128" s="16" t="s">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F129" s="16" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="D130" s="17" t="s">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="D131" s="17" t="s">
         <v>464</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E131" s="14" t="s">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E132" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="F131" s="22"/>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E132" s="14"/>
-      <c r="F132" s="22" t="s">
+      <c r="F132" s="22"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E133" s="14"/>
+      <c r="F133" s="22" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E133" s="14" t="s">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E134" s="14" t="s">
         <v>456</v>
       </c>
-      <c r="F133" s="22"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E134" s="14"/>
-      <c r="F134" s="22" t="s">
+      <c r="F134" s="22"/>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E135" s="14"/>
+      <c r="F135" s="22" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E135" s="14" t="s">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E136" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="F135" s="22"/>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A136" s="74" t="s">
+      <c r="F136" s="22"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" s="74" t="s">
         <v>585</v>
       </c>
-      <c r="E136" s="14"/>
-      <c r="F136" s="23" t="s">
+      <c r="E137" s="14"/>
+      <c r="F137" s="23" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E137" s="14" t="s">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E138" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="F137" s="22"/>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E138" s="14"/>
-      <c r="F138" s="23" t="s">
+      <c r="F138" s="22"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E139" s="14"/>
+      <c r="F139" s="23" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E139" s="14" t="s">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E140" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="F139" s="22"/>
-      <c r="G139" s="22"/>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E140" s="14"/>
-      <c r="F140" s="22" t="s">
-        <v>236</v>
-      </c>
-      <c r="G140" s="26" t="s">
-        <v>237</v>
-      </c>
+      <c r="F140" s="22"/>
+      <c r="G140" s="22"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.15">
       <c r="E141" s="14"/>
       <c r="F141" s="22" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="G141" s="26" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="E142" s="14" t="s">
+      <c r="E142" s="14"/>
+      <c r="F142" s="22" t="s">
+        <v>323</v>
+      </c>
+      <c r="G142" s="26" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="E143" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="F142" s="22"/>
-      <c r="G142" s="22"/>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E143" s="23"/>
-      <c r="F143" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="G143" s="22" t="s">
-        <v>241</v>
-      </c>
+      <c r="F143" s="22"/>
+      <c r="G143" s="22"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E144" s="23"/>
       <c r="F144" s="22" t="s">
+        <v>240</v>
+      </c>
+      <c r="G144" s="22" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E145" s="23"/>
+      <c r="F145" s="22" t="s">
         <v>242</v>
       </c>
-      <c r="G144" s="20" t="s">
+      <c r="G145" s="20" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E145" s="14"/>
-      <c r="F145" s="23"/>
-    </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="E146" s="14" t="s">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E146" s="14"/>
+      <c r="F146" s="23"/>
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="E147" s="14" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F147" s="112" t="s">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F148" s="112" t="s">
         <v>817</v>
       </c>
-      <c r="G147" s="112"/>
-      <c r="H147" s="112"/>
-      <c r="I147" s="112"/>
-      <c r="J147" s="112"/>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="F148" s="16" t="s">
+      <c r="G148" s="112"/>
+      <c r="H148" s="112"/>
+      <c r="I148" s="112"/>
+      <c r="J148" s="112"/>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="F149" s="16" t="s">
         <v>818</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="G149" s="16" t="s">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="G150" s="16" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="M153" s="24"/>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A154" s="74" t="s">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M154" s="24"/>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A155" s="74" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="M155" s="24"/>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="I160" s="17" t="s">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M156" s="24"/>
+    </row>
+    <row r="161" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I161" s="17" t="s">
         <v>472</v>
-      </c>
-    </row>
-    <row r="161" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="J161" s="16" t="s">
-        <v>469</v>
       </c>
     </row>
     <row r="162" spans="2:17" x14ac:dyDescent="0.15">
       <c r="J162" s="16" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="163" spans="2:17" x14ac:dyDescent="0.15">
       <c r="J163" s="16" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="164" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="J164" s="16" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="164" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="K164" s="16" t="s">
+    <row r="165" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="K165" s="16" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="165" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="I165" s="17" t="s">
+    <row r="166" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I166" s="17" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="166" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="I166" s="17"/>
-      <c r="J166" s="16" t="s">
-        <v>475</v>
       </c>
     </row>
     <row r="167" spans="2:17" x14ac:dyDescent="0.15">
       <c r="I167" s="17"/>
-      <c r="J167" s="17" t="s">
+      <c r="J167" s="16" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="168" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I168" s="17"/>
+      <c r="J168" s="17" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="168" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="K168" s="16" t="s">
+    <row r="169" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="K169" s="16" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="169" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="I169" s="17" t="s">
+    <row r="170" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="I170" s="17" t="s">
         <v>640</v>
       </c>
     </row>
-    <row r="170" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="J170" s="16" t="s">
+    <row r="171" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="J171" s="16" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="171" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="J171" s="17" t="s">
+    <row r="172" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="J172" s="17" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="172" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B172" s="16" t="s">
+    <row r="173" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B173" s="16" t="s">
         <v>671</v>
       </c>
-      <c r="K172" s="16" t="s">
+      <c r="K173" s="16" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="173" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="F173" s="28"/>
-      <c r="G173" s="28"/>
-      <c r="H173" s="28"/>
-      <c r="I173" s="28"/>
-      <c r="J173" s="28"/>
-      <c r="K173" s="28"/>
-      <c r="L173" s="28"/>
-      <c r="M173" s="28"/>
-      <c r="N173" s="28"/>
-      <c r="O173" s="28"/>
-      <c r="P173" s="28"/>
-      <c r="Q173" s="28"/>
     </row>
     <row r="174" spans="2:17" x14ac:dyDescent="0.15">
       <c r="F174" s="28"/>
@@ -31538,7 +31606,7 @@
       <c r="P177" s="28"/>
       <c r="Q177" s="28"/>
     </row>
-    <row r="178" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="178" spans="2:17" x14ac:dyDescent="0.15">
       <c r="F178" s="28"/>
       <c r="G178" s="28"/>
       <c r="H178" s="28"/>
@@ -31546,16 +31614,13 @@
       <c r="J178" s="28"/>
       <c r="K178" s="28"/>
       <c r="L178" s="28"/>
-      <c r="M178" s="68"/>
+      <c r="M178" s="28"/>
       <c r="N178" s="28"/>
       <c r="O178" s="28"/>
       <c r="P178" s="28"/>
       <c r="Q178" s="28"/>
     </row>
-    <row r="179" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="B179" s="16" t="s">
-        <v>554</v>
-      </c>
+    <row r="179" spans="2:17" x14ac:dyDescent="0.35">
       <c r="F179" s="28"/>
       <c r="G179" s="28"/>
       <c r="H179" s="28"/>
@@ -31563,13 +31628,16 @@
       <c r="J179" s="28"/>
       <c r="K179" s="28"/>
       <c r="L179" s="28"/>
-      <c r="M179" s="28"/>
+      <c r="M179" s="68"/>
       <c r="N179" s="28"/>
       <c r="O179" s="28"/>
       <c r="P179" s="28"/>
       <c r="Q179" s="28"/>
     </row>
-    <row r="180" spans="2:17" x14ac:dyDescent="0.35">
+    <row r="180" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="B180" s="16" t="s">
+        <v>554</v>
+      </c>
       <c r="F180" s="28"/>
       <c r="G180" s="28"/>
       <c r="H180" s="28"/>
@@ -31577,13 +31645,13 @@
       <c r="J180" s="28"/>
       <c r="K180" s="28"/>
       <c r="L180" s="28"/>
-      <c r="M180" s="68"/>
+      <c r="M180" s="28"/>
       <c r="N180" s="28"/>
       <c r="O180" s="28"/>
       <c r="P180" s="28"/>
       <c r="Q180" s="28"/>
     </row>
-    <row r="181" spans="2:17" x14ac:dyDescent="0.15">
+    <row r="181" spans="2:17" x14ac:dyDescent="0.35">
       <c r="F181" s="28"/>
       <c r="G181" s="28"/>
       <c r="H181" s="28"/>
@@ -31591,7 +31659,7 @@
       <c r="J181" s="28"/>
       <c r="K181" s="28"/>
       <c r="L181" s="28"/>
-      <c r="M181" s="28"/>
+      <c r="M181" s="68"/>
       <c r="N181" s="28"/>
       <c r="O181" s="28"/>
       <c r="P181" s="28"/>
@@ -31643,7 +31711,7 @@
       <c r="F185" s="28"/>
       <c r="G185" s="28"/>
       <c r="H185" s="28"/>
-      <c r="I185" s="9"/>
+      <c r="I185" s="28"/>
       <c r="J185" s="28"/>
       <c r="K185" s="28"/>
       <c r="L185" s="28"/>
@@ -31657,7 +31725,7 @@
       <c r="F186" s="28"/>
       <c r="G186" s="28"/>
       <c r="H186" s="28"/>
-      <c r="I186" s="28"/>
+      <c r="I186" s="9"/>
       <c r="J186" s="28"/>
       <c r="K186" s="28"/>
       <c r="L186" s="28"/>
@@ -31681,21 +31749,35 @@
       <c r="P187" s="28"/>
       <c r="Q187" s="28"/>
     </row>
-    <row r="190" spans="2:17" x14ac:dyDescent="0.15">
-      <c r="I190" s="17"/>
+    <row r="188" spans="2:17" x14ac:dyDescent="0.15">
+      <c r="F188" s="28"/>
+      <c r="G188" s="28"/>
+      <c r="H188" s="28"/>
+      <c r="I188" s="28"/>
+      <c r="J188" s="28"/>
+      <c r="K188" s="28"/>
+      <c r="L188" s="28"/>
+      <c r="M188" s="28"/>
+      <c r="N188" s="28"/>
+      <c r="O188" s="28"/>
+      <c r="P188" s="28"/>
+      <c r="Q188" s="28"/>
     </row>
     <row r="191" spans="2:17" x14ac:dyDescent="0.15">
       <c r="I191" s="17"/>
     </row>
     <row r="192" spans="2:17" x14ac:dyDescent="0.15">
       <c r="I192" s="17"/>
-      <c r="J192" s="17"/>
-    </row>
-    <row r="194" spans="9:10" x14ac:dyDescent="0.15">
-      <c r="I194" s="17"/>
-    </row>
-    <row r="196" spans="9:10" x14ac:dyDescent="0.15">
-      <c r="J196" s="17"/>
+    </row>
+    <row r="193" spans="9:10" x14ac:dyDescent="0.15">
+      <c r="I193" s="17"/>
+      <c r="J193" s="17"/>
+    </row>
+    <row r="195" spans="9:10" x14ac:dyDescent="0.15">
+      <c r="I195" s="17"/>
+    </row>
+    <row r="197" spans="9:10" x14ac:dyDescent="0.15">
+      <c r="J197" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -31704,7 +31786,7 @@
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:A84 A86:A1048576">
+  <conditionalFormatting sqref="A1:A85 A87:A1048576">
     <cfRule type="notContainsBlanks" dxfId="2" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
@@ -32611,8 +32693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U552"/>
   <sheetViews>
-    <sheetView topLeftCell="A470" workbookViewId="0">
-      <selection activeCell="O452" sqref="O452"/>
+    <sheetView topLeftCell="A414" workbookViewId="0">
+      <selection activeCell="N434" sqref="N434"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -36514,14 +36596,14 @@
         <v>237</v>
       </c>
     </row>
-    <row r="433" spans="4:8" x14ac:dyDescent="0.15">
+    <row r="433" spans="4:12" x14ac:dyDescent="0.15">
       <c r="F433" s="14" t="s">
         <v>239</v>
       </c>
       <c r="G433" s="22"/>
       <c r="H433" s="22"/>
     </row>
-    <row r="434" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="434" spans="4:12" x14ac:dyDescent="0.3">
       <c r="F434" s="23"/>
       <c r="G434" s="22" t="s">
         <v>240</v>
@@ -36530,7 +36612,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="435" spans="4:8" x14ac:dyDescent="0.3">
+    <row r="435" spans="4:12" x14ac:dyDescent="0.3">
       <c r="F435" s="23"/>
       <c r="G435" s="22" t="s">
         <v>242</v>
@@ -36539,20 +36621,79 @@
         <v>243</v>
       </c>
     </row>
-    <row r="437" spans="4:8" x14ac:dyDescent="0.15">
-      <c r="D437" s="17" t="s">
+    <row r="437" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="D437" s="142" t="s">
         <v>691</v>
       </c>
-    </row>
-    <row r="442" spans="4:8" x14ac:dyDescent="0.3">
-      <c r="F442" s="16" t="s">
+      <c r="E437" s="124"/>
+      <c r="F437" s="124"/>
+      <c r="G437" s="124"/>
+      <c r="H437" s="124"/>
+      <c r="I437" s="124"/>
+      <c r="J437" s="124"/>
+      <c r="K437" s="124"/>
+      <c r="L437" s="124"/>
+    </row>
+    <row r="438" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="D438" s="124"/>
+      <c r="E438" s="124"/>
+      <c r="F438" s="124"/>
+      <c r="G438" s="124"/>
+      <c r="H438" s="124"/>
+      <c r="I438" s="124"/>
+      <c r="J438" s="124"/>
+      <c r="K438" s="124"/>
+      <c r="L438" s="124"/>
+    </row>
+    <row r="439" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="D439" s="124"/>
+      <c r="E439" s="124"/>
+      <c r="F439" s="124"/>
+      <c r="G439" s="124"/>
+      <c r="H439" s="124"/>
+      <c r="I439" s="124"/>
+      <c r="J439" s="124"/>
+      <c r="K439" s="124"/>
+      <c r="L439" s="124"/>
+    </row>
+    <row r="440" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="D440" s="124"/>
+      <c r="E440" s="124"/>
+      <c r="F440" s="124"/>
+      <c r="G440" s="124"/>
+      <c r="H440" s="124"/>
+      <c r="I440" s="124"/>
+      <c r="J440" s="124"/>
+      <c r="K440" s="124"/>
+      <c r="L440" s="124"/>
+    </row>
+    <row r="441" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="D441" s="124"/>
+      <c r="E441" s="124"/>
+      <c r="F441" s="124"/>
+      <c r="G441" s="124"/>
+      <c r="H441" s="124"/>
+      <c r="I441" s="124"/>
+      <c r="J441" s="124"/>
+      <c r="K441" s="124"/>
+      <c r="L441" s="124"/>
+    </row>
+    <row r="442" spans="4:12" x14ac:dyDescent="0.3">
+      <c r="D442" s="124"/>
+      <c r="E442" s="124"/>
+      <c r="F442" s="124" t="s">
         <v>668</v>
       </c>
-      <c r="H442" s="20" t="s">
+      <c r="G442" s="124"/>
+      <c r="H442" s="125" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="444" spans="4:8" x14ac:dyDescent="0.15">
+      <c r="I442" s="124"/>
+      <c r="J442" s="124"/>
+      <c r="K442" s="124"/>
+      <c r="L442" s="124"/>
+    </row>
+    <row r="444" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D444" s="17" t="s">
         <v>692</v>
       </c>
@@ -36691,7 +36832,7 @@
     </row>
     <row r="465" spans="6:16" x14ac:dyDescent="0.15">
       <c r="F465" s="17" t="s">
-        <v>255</v>
+        <v>867</v>
       </c>
     </row>
     <row r="466" spans="6:16" x14ac:dyDescent="0.15">
@@ -36719,6 +36860,11 @@
       <c r="H470" s="16" t="s">
         <v>768</v>
       </c>
+      <c r="J470" s="124"/>
+      <c r="K470" s="124"/>
+      <c r="L470" s="124"/>
+      <c r="M470" s="124"/>
+      <c r="N470" s="124"/>
     </row>
     <row r="471" spans="6:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F471" s="99" t="s">
@@ -36895,7 +37041,7 @@
     </row>
     <row r="483" spans="4:16" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F483" s="110" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="G483" s="112"/>
       <c r="H483" s="112"/>
@@ -36972,10 +37118,10 @@
       <c r="I488" s="112"/>
       <c r="J488" s="112"/>
       <c r="K488" s="112"/>
-      <c r="L488" s="112"/>
-      <c r="M488" s="112"/>
-      <c r="N488" s="112"/>
-      <c r="O488" s="112"/>
+      <c r="L488" s="124"/>
+      <c r="M488" s="124"/>
+      <c r="N488" s="124"/>
+      <c r="O488" s="124"/>
     </row>
     <row r="489" spans="4:16" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="490" spans="4:16" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/gd/道具系统/背包基础逻辑.xlsx
+++ b/gd/道具系统/背包基础逻辑.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13035"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="11" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="869">
   <si>
     <t>定义产出药物，经验丹等材料的便捷使用（梦幻的红芦羹）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2653,10 +2653,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>叠加数量待定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>那不隐藏啦</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3487,6 +3483,14 @@
   </si>
   <si>
     <t>、</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩家获得可叠加道具后自动检查背包内是否含有相同ID道具</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于道具无叠加上限，修改道具进包规则</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3700,7 +3704,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3770,6 +3774,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3998,7 +4008,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="144">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4309,6 +4319,12 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -4351,10 +4367,12 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -13432,8 +13450,8 @@
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>456629</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123467</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9167</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -20773,8 +20791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O39"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -20974,17 +20992,17 @@
     </row>
     <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="49"/>
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="134" t="s">
         <v>379</v>
       </c>
-      <c r="C11" s="133"/>
-      <c r="D11" s="134" t="s">
+      <c r="C11" s="135"/>
+      <c r="D11" s="136" t="s">
         <v>380</v>
       </c>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="134"/>
-      <c r="H11" s="135"/>
+      <c r="E11" s="136"/>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136"/>
+      <c r="H11" s="137"/>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
       <c r="K11" s="38"/>
@@ -20999,11 +21017,11 @@
         <v>381</v>
       </c>
       <c r="C12" s="55"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="128"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="128"/>
-      <c r="H12" s="129"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="131"/>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
       <c r="K12" s="38"/>
@@ -21018,11 +21036,11 @@
         <v>382</v>
       </c>
       <c r="C13" s="56"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="137"/>
-      <c r="H13" s="138"/>
+      <c r="D13" s="138"/>
+      <c r="E13" s="139"/>
+      <c r="F13" s="139"/>
+      <c r="G13" s="139"/>
+      <c r="H13" s="140"/>
       <c r="I13" s="38"/>
       <c r="J13" s="38"/>
       <c r="K13" s="38"/>
@@ -21037,11 +21055,11 @@
         <v>384</v>
       </c>
       <c r="C14" s="55"/>
-      <c r="D14" s="139"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="141"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="143"/>
       <c r="I14" s="38"/>
       <c r="J14" s="38"/>
       <c r="K14" s="38"/>
@@ -21058,11 +21076,11 @@
       <c r="C15" s="56" t="s">
         <v>383</v>
       </c>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="129"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="130"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="130"/>
+      <c r="H15" s="131"/>
       <c r="I15" s="38"/>
       <c r="J15" s="38"/>
       <c r="K15" s="38"/>
@@ -21077,11 +21095,11 @@
         <v>386</v>
       </c>
       <c r="C16" s="56"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="129"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="130"/>
+      <c r="F16" s="130"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="131"/>
       <c r="I16" s="38"/>
       <c r="J16" s="38"/>
       <c r="K16" s="38"/>
@@ -21096,11 +21114,11 @@
         <v>387</v>
       </c>
       <c r="C17" s="56"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="129"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="130"/>
+      <c r="F17" s="130"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="131"/>
       <c r="I17" s="38"/>
       <c r="J17" s="38"/>
       <c r="K17" s="38"/>
@@ -21115,11 +21133,11 @@
         <v>388</v>
       </c>
       <c r="C18" s="58"/>
-      <c r="D18" s="130"/>
-      <c r="E18" s="130"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="130"/>
-      <c r="H18" s="131"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="132"/>
+      <c r="H18" s="133"/>
       <c r="I18" s="38"/>
       <c r="J18" s="38"/>
       <c r="K18" s="38"/>
@@ -21234,7 +21252,7 @@
         <v>399</v>
       </c>
       <c r="H23" s="38" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="I23" s="38"/>
       <c r="J23" s="38"/>
@@ -21255,17 +21273,17 @@
         <v>399</v>
       </c>
       <c r="H24" s="38" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="I24" s="38"/>
       <c r="J24" s="104" t="s">
+        <v>773</v>
+      </c>
+      <c r="K24" s="104" t="s">
         <v>774</v>
       </c>
-      <c r="K24" s="104" t="s">
+      <c r="L24" s="104" t="s">
         <v>775</v>
-      </c>
-      <c r="L24" s="104" t="s">
-        <v>776</v>
       </c>
       <c r="M24" s="38"/>
       <c r="N24" s="38"/>
@@ -21280,7 +21298,7 @@
       <c r="F25" s="50"/>
       <c r="G25" s="50"/>
       <c r="H25" s="107" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="I25" s="38"/>
       <c r="J25" s="104"/>
@@ -21300,10 +21318,10 @@
       <c r="E26" s="123"/>
       <c r="F26" s="50"/>
       <c r="G26" s="50" t="s">
+        <v>838</v>
+      </c>
+      <c r="H26" s="107" t="s">
         <v>839</v>
-      </c>
-      <c r="H26" s="107" t="s">
-        <v>840</v>
       </c>
       <c r="I26" s="38"/>
       <c r="J26" s="104"/>
@@ -21322,7 +21340,7 @@
       <c r="F27" s="50"/>
       <c r="G27" s="50"/>
       <c r="H27" s="107" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="I27" s="38"/>
       <c r="J27" s="38"/>
@@ -21341,7 +21359,7 @@
       <c r="F28" s="50"/>
       <c r="G28" s="50"/>
       <c r="H28" s="107" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="I28" s="38"/>
       <c r="J28" s="38"/>
@@ -21360,7 +21378,7 @@
       <c r="F29" s="50"/>
       <c r="G29" s="50"/>
       <c r="H29" s="38" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="I29" s="38"/>
       <c r="J29" s="38"/>
@@ -21380,10 +21398,10 @@
       <c r="E30" s="126"/>
       <c r="F30" s="50"/>
       <c r="G30" s="50" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H30" s="107" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="I30" s="38"/>
       <c r="J30" s="38"/>
@@ -21398,13 +21416,13 @@
       <c r="B31" s="38"/>
       <c r="C31" s="59"/>
       <c r="D31" s="50"/>
-      <c r="E31" s="143"/>
+      <c r="E31" s="129"/>
       <c r="F31" s="50"/>
       <c r="G31" s="50" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H31" s="107" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I31" s="38"/>
       <c r="J31" s="38"/>
@@ -21417,12 +21435,18 @@
     <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="49"/>
       <c r="B32" s="38"/>
-      <c r="C32" s="59"/>
+      <c r="C32" s="59">
+        <v>42296</v>
+      </c>
       <c r="D32" s="50"/>
-      <c r="E32" s="127"/>
+      <c r="E32" s="147"/>
       <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="38"/>
+      <c r="G32" s="50" t="s">
+        <v>838</v>
+      </c>
+      <c r="H32" s="107" t="s">
+        <v>868</v>
+      </c>
       <c r="I32" s="38"/>
       <c r="J32" s="38"/>
       <c r="K32" s="38"/>
@@ -21482,10 +21506,10 @@
         <v>42287</v>
       </c>
       <c r="D35" s="53" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E35" s="53" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="F35" s="50"/>
       <c r="G35" s="50"/>
@@ -21504,7 +21528,7 @@
       <c r="C36" s="59"/>
       <c r="D36" s="53"/>
       <c r="E36" s="53" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="F36" s="50"/>
       <c r="G36" s="50"/>
@@ -21519,17 +21543,17 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E37" s="83" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E38" s="83" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.15">
       <c r="E39" s="83" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
   </sheetData>
@@ -21555,6 +21579,7 @@
     <hyperlink ref="H28" location="道具出售!F147" display="添加出售确定按钮IM提示"/>
     <hyperlink ref="H30" location="道具出售!J74" display="玩家出售道具时，选中状态再次唤出出售数量选择界面时，默认显示数量为刚刚玩家选择出售数量"/>
     <hyperlink ref="H31" location="道具出售!K62" display="置灰道具出售个数需求"/>
+    <hyperlink ref="H32" location="基础规则!D22" display="由于道具无叠加上限，修改道具进包规则"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21578,7 +21603,7 @@
         <v>42272</v>
       </c>
       <c r="B1" s="63" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -21586,15 +21611,15 @@
         <v>1</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C4" s="64" t="s">
+        <v>694</v>
+      </c>
+      <c r="D4" s="60" t="s">
         <v>695</v>
-      </c>
-      <c r="D4" s="60" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
@@ -21607,10 +21632,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C8" s="64" t="s">
+        <v>696</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>697</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -21623,10 +21648,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C12" s="64" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
@@ -21639,10 +21664,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="C16" s="64" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
@@ -21666,7 +21691,7 @@
         <v>409</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.15">
@@ -21674,15 +21699,15 @@
         <v>6</v>
       </c>
       <c r="C23" s="60" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C25" s="64" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.15">
@@ -21695,10 +21720,10 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C29" s="64" t="s">
+        <v>703</v>
+      </c>
+      <c r="D29" s="16" t="s">
         <v>704</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.15">
@@ -21711,10 +21736,10 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C33" s="64" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.15">
@@ -21727,10 +21752,10 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C37" s="64" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D37" s="16" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.15">
@@ -21738,15 +21763,15 @@
         <v>10</v>
       </c>
       <c r="C39" s="60" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C41" s="64" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D41" s="16" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.15">
@@ -21759,10 +21784,10 @@
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C45" s="64" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.15">
@@ -21775,10 +21800,10 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.15">
       <c r="C49" s="64" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.15">
@@ -21797,10 +21822,10 @@
     </row>
     <row r="71" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C71" s="64" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D71" s="16" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="73" spans="2:4" x14ac:dyDescent="0.15">
@@ -21813,10 +21838,10 @@
     </row>
     <row r="75" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C75" s="64" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D75" s="16" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="77" spans="2:4" x14ac:dyDescent="0.15">
@@ -21824,15 +21849,15 @@
         <v>15</v>
       </c>
       <c r="C77" s="60" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="79" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C79" s="64" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.15">
@@ -21845,10 +21870,10 @@
     </row>
     <row r="83" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C83" s="64" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="84" spans="2:11" x14ac:dyDescent="0.15">
@@ -21864,10 +21889,10 @@
     </row>
     <row r="87" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C87" s="64" t="s">
+        <v>716</v>
+      </c>
+      <c r="D87" s="16" t="s">
         <v>717</v>
-      </c>
-      <c r="D87" s="16" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="89" spans="2:11" x14ac:dyDescent="0.15">
@@ -21914,20 +21939,20 @@
     </row>
     <row r="94" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C94" s="64" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D94" s="60" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="95" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D95" s="16" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="96" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D96" s="16" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="98" spans="2:10" x14ac:dyDescent="0.15">
@@ -21940,10 +21965,10 @@
     </row>
     <row r="100" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C100" s="64" t="s">
+        <v>721</v>
+      </c>
+      <c r="D100" s="16" t="s">
         <v>722</v>
-      </c>
-      <c r="D100" s="16" t="s">
-        <v>723</v>
       </c>
     </row>
     <row r="102" spans="2:10" x14ac:dyDescent="0.15">
@@ -21956,10 +21981,10 @@
     </row>
     <row r="104" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C104" s="64" t="s">
+        <v>723</v>
+      </c>
+      <c r="D104" s="16" t="s">
         <v>724</v>
-      </c>
-      <c r="D104" s="16" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="106" spans="2:10" x14ac:dyDescent="0.15">
@@ -21990,10 +22015,10 @@
     </row>
     <row r="109" spans="2:10" x14ac:dyDescent="0.15">
       <c r="C109" s="64" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D109" s="16" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="110" spans="2:10" x14ac:dyDescent="0.15">
@@ -22019,15 +22044,15 @@
         <v>22</v>
       </c>
       <c r="C112" s="60" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C114" s="64" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D114" s="16" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.15">
@@ -22040,10 +22065,10 @@
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C119" s="64" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D119" s="16" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="121" spans="2:4" x14ac:dyDescent="0.15">
@@ -22056,10 +22081,10 @@
     </row>
     <row r="123" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C123" s="64" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D123" s="16" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="125" spans="2:4" x14ac:dyDescent="0.15">
@@ -22085,20 +22110,20 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C129" s="64" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D129" s="16" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D130" s="16" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.15">
       <c r="D131" s="16" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="133" spans="1:10" s="63" customFormat="1" x14ac:dyDescent="0.15">
@@ -22106,12 +22131,12 @@
         <v>42275</v>
       </c>
       <c r="B133" s="63" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B134" s="17" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -22120,7 +22145,7 @@
         <v>1</v>
       </c>
       <c r="C136" s="60" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.15">
@@ -22133,10 +22158,10 @@
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C139" s="64" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D139" s="16" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.15">
@@ -22144,7 +22169,7 @@
         <v>2</v>
       </c>
       <c r="C142" s="60" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D142" s="60"/>
       <c r="E142" s="60"/>
@@ -22156,10 +22181,10 @@
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.15">
       <c r="C144" s="64" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D144" s="16" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="146" spans="2:4" x14ac:dyDescent="0.15">
@@ -22172,10 +22197,10 @@
     </row>
     <row r="148" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C148" s="64" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D148" s="16" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="150" spans="2:4" x14ac:dyDescent="0.15">
@@ -22188,10 +22213,10 @@
     </row>
     <row r="152" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C152" s="64" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D152" s="16" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="154" spans="2:4" x14ac:dyDescent="0.15">
@@ -22204,10 +22229,10 @@
     </row>
     <row r="156" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C156" s="64" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D156" s="16" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="158" spans="2:4" x14ac:dyDescent="0.15">
@@ -22220,10 +22245,10 @@
     </row>
     <row r="160" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C160" s="64" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D160" s="16" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="161" spans="2:11" x14ac:dyDescent="0.15">
@@ -22231,7 +22256,7 @@
     </row>
     <row r="162" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B162" s="17" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="163" spans="2:11" x14ac:dyDescent="0.15">
@@ -22244,10 +22269,10 @@
     </row>
     <row r="165" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C165" s="64" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D165" s="16" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="167" spans="2:11" x14ac:dyDescent="0.15">
@@ -22255,12 +22280,12 @@
         <v>2</v>
       </c>
       <c r="C167" s="60" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="168" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C168" s="60" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="K168" s="70"/>
     </row>
@@ -22282,10 +22307,10 @@
     </row>
     <row r="172" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C172" s="64" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D172" s="16" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="174" spans="2:11" x14ac:dyDescent="0.15">
@@ -22298,7 +22323,7 @@
     </row>
     <row r="175" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C175" s="60" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="176" spans="2:11" x14ac:dyDescent="0.15">
@@ -22306,10 +22331,10 @@
     </row>
     <row r="177" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C177" s="64" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D177" s="16" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="179" spans="2:4" x14ac:dyDescent="0.15">
@@ -22322,10 +22347,10 @@
     </row>
     <row r="181" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C181" s="64" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D181" s="16" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="183" spans="2:4" x14ac:dyDescent="0.15">
@@ -22341,20 +22366,20 @@
     </row>
     <row r="185" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C185" s="64" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D185" s="16" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="186" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D186" s="16" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="187" spans="2:4" x14ac:dyDescent="0.15">
       <c r="D187" s="16" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="189" spans="2:4" x14ac:dyDescent="0.15">
@@ -22367,10 +22392,10 @@
     </row>
     <row r="191" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C191" s="64" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D191" s="16" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
   </sheetData>
@@ -22385,23 +22410,315 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.34998626667073579"/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
+      <c r="H2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
+    </row>
+    <row r="3" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="H3" s="9"/>
+      <c r="I3" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="16"/>
+      <c r="U3" s="16"/>
+      <c r="V3" s="16"/>
+      <c r="W3" s="16"/>
+      <c r="X3" s="16"/>
+    </row>
+    <row r="4" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H4" s="9"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+    </row>
+    <row r="5" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="H5" s="9"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="78" t="s">
+        <v>652</v>
+      </c>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+      <c r="O5" s="78"/>
+      <c r="P5" s="78"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16"/>
+    </row>
+    <row r="6" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H6" s="9"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+    </row>
+    <row r="7" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H7" s="9"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+    </row>
+    <row r="8" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H8" s="9"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="78" t="s">
+        <v>653</v>
+      </c>
+      <c r="M8" s="78"/>
+      <c r="N8" s="78"/>
+      <c r="O8" s="78"/>
+      <c r="P8" s="78"/>
+      <c r="Q8" s="78"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16"/>
+    </row>
+    <row r="9" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H9" s="9"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16"/>
+    </row>
+    <row r="10" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H10" s="9"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16"/>
+    </row>
+    <row r="11" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H11" s="9"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16"/>
+    </row>
+    <row r="12" spans="1:24" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="H12" s="9"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16"/>
+    </row>
+    <row r="13" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="H13" s="9"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+    </row>
+    <row r="14" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="H14" s="9"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+      <c r="R14" s="16"/>
+      <c r="S14" s="16"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
+      <c r="W14" s="16"/>
+      <c r="X14" s="16"/>
+    </row>
+    <row r="15" spans="1:24" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="H15" s="9"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="78" t="s">
+        <v>654</v>
+      </c>
+      <c r="O15" s="78"/>
+      <c r="P15" s="78"/>
+      <c r="Q15" s="78"/>
+      <c r="R15" s="78"/>
+      <c r="S15" s="78"/>
+      <c r="T15" s="78"/>
+      <c r="U15" s="78"/>
+      <c r="V15" s="78"/>
+      <c r="W15" s="78"/>
+      <c r="X15" s="78"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -24916,10 +25233,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S48"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -24990,7 +25307,7 @@
         <v>533</v>
       </c>
       <c r="F8" s="125" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="G8" s="124"/>
       <c r="H8" s="124"/>
@@ -25088,7 +25405,7 @@
       <c r="N16" s="4"/>
       <c r="O16" s="4"/>
     </row>
-    <row r="17" spans="1:15" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" s="16" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
         <v>587</v>
       </c>
@@ -25108,7 +25425,7 @@
       <c r="N17" s="4"/>
       <c r="O17" s="4"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="D18" s="80"/>
       <c r="E18" s="80"/>
       <c r="F18" s="80"/>
@@ -25122,7 +25439,7 @@
       <c r="N18" s="4"/>
       <c r="O18" s="4"/>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
         <v>558</v>
       </c>
@@ -25141,14 +25458,14 @@
       <c r="N19" s="4"/>
       <c r="O19" s="4"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="C21" s="9" t="s">
         <v>23</v>
       </c>
@@ -25165,286 +25482,302 @@
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="D22" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E23" s="6" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D22" s="145" t="s">
+        <v>867</v>
+      </c>
+      <c r="E22" s="145"/>
+      <c r="F22" s="145"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="145"/>
+      <c r="I22" s="145"/>
+      <c r="J22" s="145"/>
+      <c r="K22" s="145"/>
+    </row>
+    <row r="23" spans="1:19" ht="33" x14ac:dyDescent="0.3">
+      <c r="A23" s="74" t="s">
+        <v>559</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>535</v>
+      </c>
+      <c r="D23" s="145"/>
+      <c r="E23" s="146" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="F24" s="78" t="s">
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="145"/>
+      <c r="K23" s="145"/>
+    </row>
+    <row r="24" spans="1:19" ht="33" x14ac:dyDescent="0.15">
+      <c r="A24" s="74" t="s">
+        <v>560</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>536</v>
+      </c>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="145" t="s">
         <v>652</v>
       </c>
-      <c r="G24" s="78"/>
-      <c r="H24" s="78"/>
-      <c r="I24" s="78"/>
-      <c r="J24" s="78"/>
-      <c r="K24" s="78"/>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E25" s="6" t="s">
+      <c r="G24" s="145"/>
+      <c r="H24" s="145"/>
+      <c r="I24" s="145"/>
+      <c r="J24" s="145"/>
+      <c r="K24" s="145"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D25" s="145"/>
+      <c r="E25" s="146" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B26" s="16" t="s">
-        <v>535</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="61" t="s">
-        <v>655</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="78" t="s">
-        <v>653</v>
-      </c>
-      <c r="H27" s="78"/>
-      <c r="I27" s="78"/>
-      <c r="J27" s="78"/>
-      <c r="K27" s="78"/>
-      <c r="L27" s="78"/>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="F28" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="A29" s="74" t="s">
-        <v>559</v>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B30" s="16" t="s">
-        <v>536</v>
-      </c>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="H30" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="33" x14ac:dyDescent="0.3">
-      <c r="A31" s="74" t="s">
-        <v>560</v>
-      </c>
-      <c r="E31" s="6"/>
-      <c r="I31" s="3" t="s">
+      <c r="F25" s="145"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="145"/>
+      <c r="K25" s="145"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="D26" s="145"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="145" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="H32" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="I33" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="I34" s="78" t="s">
-        <v>654</v>
-      </c>
-      <c r="J34" s="78"/>
-      <c r="K34" s="78"/>
-      <c r="L34" s="78"/>
-      <c r="M34" s="78"/>
-      <c r="N34" s="78"/>
-      <c r="O34" s="78"/>
-      <c r="P34" s="78"/>
-      <c r="Q34" s="78"/>
-      <c r="R34" s="78"/>
-      <c r="S34" s="78"/>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="G26" s="145"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="145"/>
+      <c r="K26" s="145"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="61"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="28"/>
+      <c r="N27" s="28"/>
+      <c r="O27" s="28"/>
+      <c r="P27" s="28"/>
+      <c r="Q27" s="28"/>
+      <c r="R27" s="28"/>
+      <c r="S27" s="28"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D30" s="6"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="2"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="D31" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="2"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B32" s="16" t="s">
+        <v>537</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="78" t="s">
+        <v>776</v>
+      </c>
+      <c r="F32" s="78"/>
+      <c r="G32" s="78"/>
+      <c r="H32" s="78"/>
+      <c r="I32" s="78"/>
+      <c r="O32" s="2"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B33" s="16" t="s">
+        <v>538</v>
+      </c>
+      <c r="D33" s="6"/>
+      <c r="E33" s="105" t="s">
+        <v>777</v>
+      </c>
+      <c r="F33" s="106"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="106"/>
+      <c r="J33" s="106"/>
+      <c r="K33" s="106"/>
+      <c r="L33" s="106"/>
+      <c r="M33" s="106"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="2"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B34" s="16" t="s">
+        <v>539</v>
+      </c>
+      <c r="D34" s="6"/>
+      <c r="E34" s="105" t="s">
+        <v>778</v>
+      </c>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="106"/>
+      <c r="J34" s="106"/>
+      <c r="K34" s="106"/>
+      <c r="L34" s="106"/>
+      <c r="M34" s="106"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="2"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="16" t="s">
+        <v>561</v>
+      </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
+      <c r="E35" s="144" t="s">
+        <v>779</v>
+      </c>
+      <c r="F35" s="124"/>
+      <c r="G35" s="124"/>
+      <c r="H35" s="124"/>
+      <c r="I35" s="124"/>
+      <c r="J35" s="124"/>
+      <c r="K35" s="125"/>
+      <c r="L35" s="125"/>
+      <c r="M35" s="125"/>
       <c r="N35" s="10"/>
       <c r="O35" s="2"/>
     </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D36" s="6" t="s">
-        <v>651</v>
-      </c>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="16" t="s">
+        <v>650</v>
+      </c>
+      <c r="D36" s="6"/>
       <c r="E36" s="4"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
       <c r="K36" s="10"/>
       <c r="L36" s="10"/>
       <c r="M36" s="10"/>
       <c r="N36" s="10"/>
       <c r="O36" s="2"/>
     </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B37" s="16" t="s">
-        <v>537</v>
-      </c>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D37" s="6"/>
-      <c r="E37" s="78" t="s">
-        <v>777</v>
-      </c>
-      <c r="F37" s="78"/>
-      <c r="G37" s="78"/>
-      <c r="H37" s="78"/>
-      <c r="I37" s="78"/>
+      <c r="E37" s="4"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
       <c r="O37" s="2"/>
     </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B38" s="16" t="s">
-        <v>538</v>
-      </c>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="D38" s="6"/>
-      <c r="E38" s="105" t="s">
-        <v>778</v>
-      </c>
-      <c r="F38" s="106"/>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="106"/>
-      <c r="K38" s="106"/>
-      <c r="L38" s="106"/>
-      <c r="M38" s="106"/>
+      <c r="E38" s="4"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="10"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="10"/>
       <c r="N38" s="10"/>
       <c r="O38" s="2"/>
     </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B39" s="16" t="s">
-        <v>539</v>
-      </c>
-      <c r="D39" s="6"/>
-      <c r="E39" s="105" t="s">
-        <v>779</v>
-      </c>
-      <c r="F39" s="106"/>
-      <c r="G39" s="106"/>
-      <c r="H39" s="106"/>
-      <c r="I39" s="106"/>
-      <c r="J39" s="106"/>
-      <c r="K39" s="106"/>
-      <c r="L39" s="106"/>
-      <c r="M39" s="106"/>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="D39" s="5"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
       <c r="N39" s="10"/>
-      <c r="O39" s="2"/>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A40" s="16" t="s">
-        <v>561</v>
-      </c>
-      <c r="D40" s="6"/>
-      <c r="E40" s="105" t="s">
-        <v>780</v>
-      </c>
-      <c r="F40" s="103"/>
-      <c r="G40" s="103"/>
-      <c r="H40" s="103"/>
-      <c r="I40" s="103"/>
-      <c r="J40" s="103"/>
-      <c r="K40" s="106"/>
-      <c r="L40" s="106"/>
-      <c r="M40" s="106"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="2"/>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A41" s="16" t="s">
-        <v>650</v>
-      </c>
-      <c r="D41" s="6"/>
-      <c r="E41" s="4"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="2"/>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D42" s="6"/>
-      <c r="E42" s="4"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="2"/>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D43" s="6"/>
-      <c r="E43" s="4"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="2"/>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="D44" s="5"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="C45" s="8"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C47" s="3"/>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.15">
-      <c r="C48" s="3"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="C40" s="8"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="C43" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B3 B6:B1048576">
+  <conditionalFormatting sqref="B1:B3 B6:B25 B27:B1048576">
     <cfRule type="notContainsBlanks" dxfId="10" priority="3">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
@@ -25471,7 +25804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q107"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="E70" sqref="E70"/>
     </sheetView>
   </sheetViews>
@@ -25866,7 +26199,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="16" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D78" s="16"/>
       <c r="E78" s="14"/>
@@ -26116,11 +26449,11 @@
     <row r="104" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A104" s="3"/>
       <c r="B104" s="16" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E104" s="16"/>
       <c r="F104" s="78" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G104" s="78"/>
       <c r="H104" s="78"/>
@@ -26145,13 +26478,13 @@
     </row>
     <row r="106" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A106" s="95" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B106" s="16" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="107" spans="1:14" x14ac:dyDescent="0.15">
@@ -26356,7 +26689,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="F42" s="77" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G42" s="78"/>
       <c r="H42" s="78"/>
@@ -26767,7 +27100,7 @@
       <c r="H82" s="22"/>
       <c r="I82" s="23"/>
       <c r="J82" s="23" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="K82" s="23"/>
       <c r="L82" s="23"/>
@@ -27137,7 +27470,7 @@
       <c r="M103" s="23"/>
       <c r="N103" s="23"/>
       <c r="Q103" s="16" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="104" spans="1:26" x14ac:dyDescent="0.3">
@@ -27651,7 +27984,7 @@
       <c r="G139" s="27"/>
       <c r="P139" s="8"/>
       <c r="Q139" s="106" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="R139" s="106"/>
       <c r="S139" s="103"/>
@@ -27812,7 +28145,7 @@
       <c r="N152" s="10"/>
       <c r="Q152" s="78"/>
       <c r="R152" s="78" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="S152" s="78"/>
       <c r="T152" s="78"/>
@@ -27832,7 +28165,7 @@
       <c r="M153" s="10"/>
       <c r="N153" s="10"/>
       <c r="Q153" s="77" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="R153" s="78"/>
       <c r="S153" s="78"/>
@@ -27854,7 +28187,7 @@
       <c r="N154" s="10"/>
       <c r="Q154" s="78"/>
       <c r="R154" s="78" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="S154" s="78"/>
       <c r="T154" s="78"/>
@@ -27869,7 +28202,7 @@
       <c r="F155" s="23"/>
       <c r="G155" s="10"/>
       <c r="H155" s="22" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="I155" s="23"/>
       <c r="J155" s="23"/>
@@ -27886,7 +28219,7 @@
       <c r="G156" s="10"/>
       <c r="H156" s="22"/>
       <c r="I156" s="23" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J156" s="23"/>
       <c r="K156" s="23"/>
@@ -27911,7 +28244,7 @@
       <c r="D158" s="112"/>
       <c r="E158" s="112"/>
       <c r="F158" s="110" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G158" s="111"/>
       <c r="H158" s="113"/>
@@ -28063,7 +28396,7 @@
     <row r="166" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A166" s="28"/>
       <c r="D166" s="112" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="E166" s="112"/>
       <c r="F166" s="111"/>
@@ -28122,7 +28455,7 @@
     <row r="169" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A169" s="28"/>
       <c r="D169" s="112" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E169" s="112"/>
       <c r="F169" s="111"/>
@@ -28181,7 +28514,7 @@
     <row r="172" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A172" s="28"/>
       <c r="D172" s="112" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E172" s="112"/>
       <c r="F172" s="111"/>
@@ -28297,7 +28630,7 @@
     <row r="178" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A178" s="28"/>
       <c r="D178" s="112" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="E178" s="112"/>
       <c r="F178" s="111"/>
@@ -28497,7 +28830,7 @@
       <c r="J188" s="111"/>
       <c r="K188" s="111"/>
       <c r="L188" s="111" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="M188" s="111"/>
       <c r="N188" s="111"/>
@@ -28569,7 +28902,7 @@
       <c r="D192" s="112"/>
       <c r="E192" s="112"/>
       <c r="F192" s="118" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G192" s="118"/>
       <c r="H192" s="112"/>
@@ -28591,7 +28924,7 @@
       <c r="E193" s="112"/>
       <c r="F193" s="118"/>
       <c r="G193" s="111" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="H193" s="112"/>
       <c r="I193" s="112"/>
@@ -28611,7 +28944,7 @@
       <c r="D194" s="112"/>
       <c r="E194" s="112"/>
       <c r="F194" s="118" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G194" s="118"/>
       <c r="H194" s="112"/>
@@ -28633,7 +28966,7 @@
       <c r="E195" s="112"/>
       <c r="F195" s="112"/>
       <c r="G195" s="109" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="H195" s="109"/>
       <c r="I195" s="109"/>
@@ -28655,7 +28988,7 @@
       <c r="E196" s="112"/>
       <c r="F196" s="112"/>
       <c r="G196" s="109" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="H196" s="109"/>
       <c r="I196" s="109"/>
@@ -28678,7 +29011,7 @@
       <c r="F197" s="112"/>
       <c r="G197" s="109"/>
       <c r="H197" s="109" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="I197" s="109"/>
       <c r="J197" s="109"/>
@@ -28700,7 +29033,7 @@
       <c r="F198" s="111"/>
       <c r="G198" s="109"/>
       <c r="H198" s="109" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="I198" s="109"/>
       <c r="J198" s="109"/>
@@ -28723,7 +29056,7 @@
         <v>210</v>
       </c>
       <c r="G199" s="112" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="H199" s="112"/>
       <c r="I199" s="112"/>
@@ -28745,7 +29078,7 @@
       <c r="F200" s="112"/>
       <c r="G200" s="112"/>
       <c r="H200" s="111" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="I200" s="111"/>
       <c r="J200" s="113"/>
@@ -28784,7 +29117,7 @@
       <c r="E202" s="112"/>
       <c r="F202" s="112"/>
       <c r="G202" s="112" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="H202" s="113"/>
       <c r="I202" s="111"/>
@@ -28806,7 +29139,7 @@
       <c r="F203" s="112"/>
       <c r="G203" s="111"/>
       <c r="H203" s="113" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="I203" s="111"/>
       <c r="J203" s="111"/>
@@ -28827,7 +29160,7 @@
       <c r="F204" s="112"/>
       <c r="G204" s="111"/>
       <c r="H204" s="113" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="I204" s="111"/>
       <c r="J204" s="111"/>
@@ -28848,7 +29181,7 @@
       <c r="F205" s="112"/>
       <c r="G205" s="112"/>
       <c r="H205" s="112" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="I205" s="112"/>
       <c r="J205" s="112"/>
@@ -28933,7 +29266,7 @@
       <c r="E209" s="112"/>
       <c r="F209" s="111"/>
       <c r="G209" s="112" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="H209" s="112"/>
       <c r="I209" s="112"/>
@@ -28955,7 +29288,7 @@
       <c r="F210" s="111"/>
       <c r="G210" s="112"/>
       <c r="H210" s="112" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="I210" s="112"/>
       <c r="J210" s="112"/>
@@ -29040,7 +29373,7 @@
       <c r="E214" s="112"/>
       <c r="F214" s="112"/>
       <c r="G214" s="112" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H214" s="112"/>
       <c r="I214" s="112"/>
@@ -29062,7 +29395,7 @@
       <c r="F215" s="112"/>
       <c r="G215" s="112"/>
       <c r="H215" s="109" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="I215" s="118"/>
       <c r="J215" s="118"/>
@@ -29083,7 +29416,7 @@
       <c r="F216" s="112"/>
       <c r="G216" s="112"/>
       <c r="H216" s="118" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="I216" s="118"/>
       <c r="J216" s="118"/>
@@ -29104,7 +29437,7 @@
       <c r="F217" s="112"/>
       <c r="G217" s="112"/>
       <c r="H217" s="118" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I217" s="118"/>
       <c r="J217" s="118"/>
@@ -29275,7 +29608,7 @@
       <c r="E225" s="112"/>
       <c r="F225" s="111"/>
       <c r="G225" s="111" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="H225" s="113"/>
       <c r="I225" s="111"/>
@@ -29382,7 +29715,7 @@
       <c r="G230" s="112"/>
       <c r="H230" s="112"/>
       <c r="I230" s="112" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="J230" s="112"/>
       <c r="K230" s="112"/>
@@ -29419,7 +29752,7 @@
       <c r="D232" s="112"/>
       <c r="E232" s="112"/>
       <c r="F232" s="109" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G232" s="112"/>
       <c r="H232" s="109"/>
@@ -29441,7 +29774,7 @@
       <c r="E233" s="112"/>
       <c r="F233" s="109"/>
       <c r="G233" s="109" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H233" s="109"/>
       <c r="I233" s="109"/>
@@ -29462,7 +29795,7 @@
       <c r="E234" s="112"/>
       <c r="F234" s="118"/>
       <c r="G234" s="118" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H234" s="118"/>
       <c r="I234" s="118"/>
@@ -29483,7 +29816,7 @@
       <c r="E235" s="112"/>
       <c r="F235" s="118"/>
       <c r="G235" s="118" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="H235" s="118"/>
       <c r="I235" s="118"/>
@@ -29504,7 +29837,7 @@
       <c r="E236" s="112"/>
       <c r="F236" s="118"/>
       <c r="G236" s="118" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="H236" s="118"/>
       <c r="I236" s="118"/>
@@ -29525,7 +29858,7 @@
       <c r="E237" s="112"/>
       <c r="F237" s="118"/>
       <c r="G237" s="118" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H237" s="118"/>
       <c r="I237" s="118"/>
@@ -29817,7 +30150,7 @@
       <c r="E264" s="87"/>
       <c r="F264" s="88"/>
       <c r="G264" s="77" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H264" s="78"/>
       <c r="I264" s="78"/>
@@ -29965,7 +30298,7 @@
       <c r="E274" s="87"/>
       <c r="F274" s="78"/>
       <c r="G274" s="78" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H274" s="78"/>
       <c r="I274" s="78"/>
@@ -30004,7 +30337,7 @@
     <row r="277" spans="1:18" x14ac:dyDescent="0.3">
       <c r="E277" s="17"/>
       <c r="G277" s="103" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="H277" s="103"/>
       <c r="I277" s="103"/>
@@ -30041,7 +30374,7 @@
       </c>
       <c r="H279" s="22"/>
       <c r="I279" s="23" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="J279" s="23"/>
       <c r="K279" s="23"/>
@@ -30125,7 +30458,7 @@
     <row r="285" spans="1:18" x14ac:dyDescent="0.3">
       <c r="H285" s="46"/>
       <c r="I285" s="23" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="J285" s="23"/>
       <c r="K285" s="23"/>
@@ -30219,7 +30552,7 @@
     </row>
     <row r="295" spans="1:18" x14ac:dyDescent="0.15">
       <c r="F295" s="98" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G295" s="98"/>
       <c r="H295" s="98"/>
@@ -30305,7 +30638,7 @@
     </row>
     <row r="322" spans="5:7" x14ac:dyDescent="0.15">
       <c r="F322" s="103" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G322" s="103"/>
     </row>
@@ -30351,8 +30684,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A8:AB197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G83" workbookViewId="0">
-      <selection activeCell="V77" sqref="V77"/>
+    <sheetView topLeftCell="G83" workbookViewId="0">
+      <selection activeCell="S104" sqref="S104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -30374,7 +30707,7 @@
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="D28" s="17" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.15">
@@ -30387,7 +30720,7 @@
         <v>578</v>
       </c>
       <c r="F30" s="78" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="G30" s="78"/>
       <c r="H30" s="78"/>
@@ -30589,7 +30922,7 @@
     <row r="57" spans="1:18" x14ac:dyDescent="0.15">
       <c r="H57" s="14"/>
       <c r="I57" s="22" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.15">
@@ -30611,7 +30944,7 @@
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.15">
       <c r="L61" s="16" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.15">
@@ -30620,7 +30953,7 @@
       </c>
       <c r="K62" s="124"/>
       <c r="L62" s="124" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="M62" s="124"/>
       <c r="N62" s="124"/>
@@ -30632,7 +30965,7 @@
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="K63" s="124"/>
       <c r="L63" s="124" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="M63" s="124"/>
       <c r="N63" s="125" t="s">
@@ -30645,7 +30978,7 @@
     </row>
     <row r="64" spans="1:18" ht="49.5" x14ac:dyDescent="0.15">
       <c r="A64" s="74" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="K64" s="124"/>
       <c r="L64" s="124"/>
@@ -30697,7 +31030,7 @@
         <v>548</v>
       </c>
       <c r="L69" s="16" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="71" spans="1:20" ht="66" x14ac:dyDescent="0.15">
@@ -30755,7 +31088,7 @@
       <c r="J77" s="95"/>
       <c r="K77" s="95"/>
       <c r="L77" s="95" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="M77" s="95"/>
       <c r="N77" s="95"/>
@@ -30782,12 +31115,12 @@
     </row>
     <row r="79" spans="1:20" x14ac:dyDescent="0.15">
       <c r="A79" s="96" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="J79" s="95"/>
       <c r="K79" s="95"/>
       <c r="L79" s="95" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="M79" s="95"/>
       <c r="N79" s="95"/>
@@ -30803,7 +31136,7 @@
       <c r="K80" s="95"/>
       <c r="L80" s="95"/>
       <c r="M80" s="95" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="N80" s="95"/>
       <c r="O80" s="95"/>
@@ -30820,7 +31153,7 @@
         <v>583</v>
       </c>
       <c r="S81" s="16" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="T81" s="16">
         <v>1</v>
@@ -30886,7 +31219,7 @@
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.15">
       <c r="S86" s="78" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="T86" s="78"/>
       <c r="U86" s="78"/>
@@ -30906,7 +31239,7 @@
         <v>551</v>
       </c>
       <c r="S87" s="78" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="T87" s="78"/>
       <c r="U87" s="78"/>
@@ -30945,7 +31278,7 @@
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.15">
       <c r="S93" s="16" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="U93" s="124"/>
       <c r="V93" s="124"/>
@@ -30955,7 +31288,7 @@
     </row>
     <row r="94" spans="1:28" x14ac:dyDescent="0.15">
       <c r="Q94" s="99" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="R94" s="98"/>
       <c r="S94" s="98"/>
@@ -31027,7 +31360,7 @@
       <c r="Q99" s="98"/>
       <c r="R99" s="98"/>
       <c r="S99" s="98" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="T99" s="98"/>
       <c r="U99" s="98"/>
@@ -31039,7 +31372,7 @@
     </row>
     <row r="100" spans="1:26" x14ac:dyDescent="0.15">
       <c r="Q100" s="114" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="R100" s="64"/>
       <c r="S100" s="64"/>
@@ -31112,7 +31445,7 @@
       <c r="Q105" s="64"/>
       <c r="R105" s="64"/>
       <c r="S105" s="64" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="T105" s="64"/>
       <c r="U105" s="64"/>
@@ -31125,7 +31458,7 @@
     <row r="106" spans="1:26" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A106" s="75"/>
       <c r="Q106" s="110" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="R106" s="112"/>
       <c r="S106" s="112"/>
@@ -31202,7 +31535,7 @@
       <c r="Q111" s="112"/>
       <c r="R111" s="112"/>
       <c r="S111" s="112" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="T111" s="112"/>
       <c r="U111" s="112"/>
@@ -31452,7 +31785,7 @@
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F148" s="112" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G148" s="112"/>
       <c r="H148" s="112"/>
@@ -31461,7 +31794,7 @@
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.15">
       <c r="F149" s="16" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.15">
@@ -31544,7 +31877,7 @@
     </row>
     <row r="173" spans="2:17" x14ac:dyDescent="0.15">
       <c r="B173" s="16" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="K173" s="16" t="s">
         <v>511</v>
@@ -32330,7 +32663,7 @@
       <c r="D1" s="38"/>
       <c r="E1" s="38"/>
       <c r="F1" s="36" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="G1" s="37"/>
       <c r="H1" s="37"/>
@@ -32340,37 +32673,37 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="35" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B2" s="34" t="s">
         <v>291</v>
       </c>
       <c r="C2" s="91" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D2" s="91" t="s">
         <v>290</v>
       </c>
       <c r="E2" s="91" t="s">
+        <v>674</v>
+      </c>
+      <c r="F2" s="33" t="s">
         <v>675</v>
       </c>
-      <c r="F2" s="33" t="s">
+      <c r="G2" s="33" t="s">
         <v>676</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="H2" s="33" t="s">
         <v>677</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="I2" s="33" t="s">
         <v>678</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="J2" s="33" t="s">
         <v>679</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="K2" s="33" t="s">
         <v>680</v>
-      </c>
-      <c r="K2" s="33" t="s">
-        <v>681</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -32467,16 +32800,16 @@
     </row>
     <row r="7" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="39" t="s">
+        <v>661</v>
+      </c>
+      <c r="B7" s="30" t="s">
         <v>662</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>663</v>
       </c>
       <c r="C7" s="39" t="s">
         <v>289</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E7" s="43"/>
       <c r="F7" s="43"/>
@@ -32490,16 +32823,16 @@
     </row>
     <row r="8" spans="1:11" s="42" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="39" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C8" s="39" t="s">
         <v>289</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E8" s="43"/>
       <c r="F8" s="43"/>
@@ -32513,16 +32846,16 @@
     </row>
     <row r="9" spans="1:11" s="84" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="39" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C9" s="39" t="s">
         <v>289</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E9" s="43"/>
       <c r="F9" s="43"/>
@@ -32704,7 +33037,7 @@
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.15">
       <c r="B1" s="17" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.15">
@@ -32990,13 +33323,13 @@
     </row>
     <row r="97" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C97" s="17" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="98" spans="3:9" x14ac:dyDescent="0.15">
       <c r="C98" s="17"/>
       <c r="D98" s="17" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="99" spans="3:9" x14ac:dyDescent="0.3">
@@ -33403,7 +33736,7 @@
     </row>
     <row r="151" spans="3:19" x14ac:dyDescent="0.3">
       <c r="C151" s="1" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E151" s="23"/>
       <c r="F151" s="23"/>
@@ -33613,7 +33946,7 @@
     </row>
     <row r="181" spans="5:15" x14ac:dyDescent="0.15">
       <c r="G181" s="16" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="H181" s="16">
         <v>1</v>
@@ -33711,14 +34044,14 @@
     </row>
     <row r="192" spans="5:15" x14ac:dyDescent="0.15">
       <c r="F192" s="16" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="193" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B193" s="112"/>
       <c r="C193" s="112"/>
       <c r="D193" s="110" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E193" s="111"/>
       <c r="F193" s="113"/>
@@ -33862,7 +34195,7 @@
     </row>
     <row r="201" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B201" s="112" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C201" s="112"/>
       <c r="D201" s="111"/>
@@ -33918,7 +34251,7 @@
     </row>
     <row r="204" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B204" s="112" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C204" s="112"/>
       <c r="D204" s="111"/>
@@ -33974,7 +34307,7 @@
     </row>
     <row r="207" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B207" s="112" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C207" s="112"/>
       <c r="D207" s="111"/>
@@ -34084,7 +34417,7 @@
     </row>
     <row r="213" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B213" s="112" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C213" s="112"/>
       <c r="D213" s="111"/>
@@ -34274,7 +34607,7 @@
       <c r="H223" s="111"/>
       <c r="I223" s="111"/>
       <c r="J223" s="111" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="K223" s="111"/>
       <c r="L223" s="111"/>
@@ -34342,7 +34675,7 @@
       <c r="B227" s="112"/>
       <c r="C227" s="112"/>
       <c r="D227" s="118" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="E227" s="118"/>
       <c r="F227" s="112"/>
@@ -34363,7 +34696,7 @@
       <c r="C228" s="112"/>
       <c r="D228" s="118"/>
       <c r="E228" s="111" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F228" s="112"/>
       <c r="G228" s="112"/>
@@ -34382,7 +34715,7 @@
       <c r="B229" s="112"/>
       <c r="C229" s="112"/>
       <c r="D229" s="118" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E229" s="118"/>
       <c r="F229" s="112"/>
@@ -34403,7 +34736,7 @@
       <c r="C230" s="112"/>
       <c r="D230" s="112"/>
       <c r="E230" s="109" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="F230" s="109"/>
       <c r="G230" s="109"/>
@@ -34423,7 +34756,7 @@
       <c r="C231" s="112"/>
       <c r="D231" s="112"/>
       <c r="E231" s="109" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F231" s="109"/>
       <c r="G231" s="109"/>
@@ -34444,7 +34777,7 @@
       <c r="D232" s="112"/>
       <c r="E232" s="109"/>
       <c r="F232" s="109" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G232" s="109"/>
       <c r="H232" s="109"/>
@@ -34464,7 +34797,7 @@
       <c r="D233" s="111"/>
       <c r="E233" s="109"/>
       <c r="F233" s="109" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G233" s="109"/>
       <c r="H233" s="109"/>
@@ -34485,7 +34818,7 @@
         <v>210</v>
       </c>
       <c r="E234" s="112" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F234" s="112"/>
       <c r="G234" s="112"/>
@@ -34506,7 +34839,7 @@
       <c r="D235" s="112"/>
       <c r="E235" s="112"/>
       <c r="F235" s="111" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G235" s="111"/>
       <c r="H235" s="113"/>
@@ -34543,7 +34876,7 @@
       <c r="C237" s="112"/>
       <c r="D237" s="112"/>
       <c r="E237" s="112" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="F237" s="113"/>
       <c r="G237" s="111"/>
@@ -34564,7 +34897,7 @@
       <c r="D238" s="112"/>
       <c r="E238" s="111"/>
       <c r="F238" s="113" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G238" s="111"/>
       <c r="H238" s="111"/>
@@ -34584,7 +34917,7 @@
       <c r="D239" s="112"/>
       <c r="E239" s="111"/>
       <c r="F239" s="113" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G239" s="111"/>
       <c r="H239" s="111"/>
@@ -34604,7 +34937,7 @@
       <c r="D240" s="112"/>
       <c r="E240" s="112"/>
       <c r="F240" s="112" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G240" s="112"/>
       <c r="H240" s="112"/>
@@ -34685,7 +35018,7 @@
       <c r="C244" s="112"/>
       <c r="D244" s="111"/>
       <c r="E244" s="112" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="F244" s="112"/>
       <c r="G244" s="112"/>
@@ -34706,7 +35039,7 @@
       <c r="D245" s="111"/>
       <c r="E245" s="112"/>
       <c r="F245" s="112" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G245" s="112"/>
       <c r="H245" s="112"/>
@@ -34787,7 +35120,7 @@
       <c r="C249" s="112"/>
       <c r="D249" s="112"/>
       <c r="E249" s="112" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="F249" s="112"/>
       <c r="G249" s="112"/>
@@ -34808,7 +35141,7 @@
       <c r="D250" s="112"/>
       <c r="E250" s="112"/>
       <c r="F250" s="109" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G250" s="118"/>
       <c r="H250" s="118"/>
@@ -34828,7 +35161,7 @@
       <c r="D251" s="112"/>
       <c r="E251" s="112"/>
       <c r="F251" s="118" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G251" s="118"/>
       <c r="H251" s="118"/>
@@ -34848,7 +35181,7 @@
       <c r="D252" s="112"/>
       <c r="E252" s="112"/>
       <c r="F252" s="118" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G252" s="118"/>
       <c r="H252" s="118"/>
@@ -35011,7 +35344,7 @@
       <c r="C260" s="112"/>
       <c r="D260" s="111"/>
       <c r="E260" s="111" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F260" s="113"/>
       <c r="G260" s="111"/>
@@ -35113,7 +35446,7 @@
       <c r="E265" s="112"/>
       <c r="F265" s="112"/>
       <c r="G265" s="112" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="H265" s="112"/>
       <c r="I265" s="112"/>
@@ -35148,7 +35481,7 @@
       <c r="B267" s="112"/>
       <c r="C267" s="112"/>
       <c r="D267" s="109" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="E267" s="112"/>
       <c r="F267" s="109"/>
@@ -35169,7 +35502,7 @@
       <c r="C268" s="112"/>
       <c r="D268" s="109"/>
       <c r="E268" s="109" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="F268" s="109"/>
       <c r="G268" s="109"/>
@@ -35189,7 +35522,7 @@
       <c r="C269" s="112"/>
       <c r="D269" s="118"/>
       <c r="E269" s="118" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="F269" s="118"/>
       <c r="G269" s="118"/>
@@ -35209,7 +35542,7 @@
       <c r="C270" s="112"/>
       <c r="D270" s="118"/>
       <c r="E270" s="118" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="F270" s="118"/>
       <c r="G270" s="118"/>
@@ -35229,7 +35562,7 @@
       <c r="C271" s="112"/>
       <c r="D271" s="118"/>
       <c r="E271" s="118" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="F271" s="118"/>
       <c r="G271" s="118"/>
@@ -35249,7 +35582,7 @@
       <c r="C272" s="112"/>
       <c r="D272" s="118"/>
       <c r="E272" s="118" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="F272" s="118"/>
       <c r="G272" s="118"/>
@@ -35275,7 +35608,7 @@
     </row>
     <row r="275" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C275" s="1" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E275" s="23"/>
       <c r="F275" s="23"/>
@@ -35899,7 +36232,7 @@
       <c r="H321" s="10"/>
       <c r="K321" s="78"/>
       <c r="L321" s="78" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="M321" s="78"/>
       <c r="N321" s="78"/>
@@ -35915,7 +36248,7 @@
       <c r="G322" s="10"/>
       <c r="H322" s="10"/>
       <c r="K322" s="77" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="L322" s="78"/>
       <c r="M322" s="78"/>
@@ -35933,7 +36266,7 @@
       <c r="H323" s="10"/>
       <c r="K323" s="78"/>
       <c r="L323" s="78" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="M323" s="78"/>
       <c r="N323" s="78"/>
@@ -36179,7 +36512,7 @@
       <c r="E347" s="87"/>
       <c r="F347" s="88"/>
       <c r="G347" s="77" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="H347" s="78"/>
       <c r="I347" s="78"/>
@@ -36327,7 +36660,7 @@
       <c r="E357" s="87"/>
       <c r="F357" s="78"/>
       <c r="G357" s="78" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="H357" s="78"/>
       <c r="I357" s="78"/>
@@ -36467,7 +36800,7 @@
     </row>
     <row r="408" spans="4:17" x14ac:dyDescent="0.15">
       <c r="D408" s="17" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="413" spans="4:17" x14ac:dyDescent="0.15">
@@ -36622,8 +36955,8 @@
       </c>
     </row>
     <row r="437" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D437" s="142" t="s">
-        <v>691</v>
+      <c r="D437" s="128" t="s">
+        <v>690</v>
       </c>
       <c r="E437" s="124"/>
       <c r="F437" s="124"/>
@@ -36682,7 +37015,7 @@
       <c r="D442" s="124"/>
       <c r="E442" s="124"/>
       <c r="F442" s="124" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G442" s="124"/>
       <c r="H442" s="125" t="s">
@@ -36695,7 +37028,7 @@
     </row>
     <row r="444" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D444" s="17" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="449" spans="6:17" x14ac:dyDescent="0.15">
@@ -36808,7 +37141,7 @@
     </row>
     <row r="463" spans="6:17" x14ac:dyDescent="0.15">
       <c r="H463" s="78" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I463" s="78"/>
       <c r="J463" s="78"/>
@@ -36822,7 +37155,7 @@
     </row>
     <row r="464" spans="6:17" x14ac:dyDescent="0.15">
       <c r="H464" s="78" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I464" s="78"/>
       <c r="J464" s="78"/>
@@ -36832,7 +37165,7 @@
     </row>
     <row r="465" spans="6:16" x14ac:dyDescent="0.15">
       <c r="F465" s="17" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="466" spans="6:16" x14ac:dyDescent="0.15">
@@ -36858,7 +37191,7 @@
     </row>
     <row r="470" spans="6:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="H470" s="16" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="J470" s="124"/>
       <c r="K470" s="124"/>
@@ -36868,7 +37201,7 @@
     </row>
     <row r="471" spans="6:16" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F471" s="99" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G471" s="98"/>
       <c r="H471" s="98"/>
@@ -36940,7 +37273,7 @@
       <c r="F476" s="98"/>
       <c r="G476" s="98"/>
       <c r="H476" s="98" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="I476" s="98"/>
       <c r="J476" s="98"/>
@@ -36952,7 +37285,7 @@
     </row>
     <row r="477" spans="6:16" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F477" s="114" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G477" s="64"/>
       <c r="H477" s="64"/>
@@ -37029,7 +37362,7 @@
       <c r="F482" s="64"/>
       <c r="G482" s="64"/>
       <c r="H482" s="64" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="I482" s="64"/>
       <c r="J482" s="64"/>
@@ -37041,7 +37374,7 @@
     </row>
     <row r="483" spans="4:16" s="28" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="F483" s="110" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="G483" s="112"/>
       <c r="H483" s="112"/>
@@ -37113,7 +37446,7 @@
       <c r="F488" s="112"/>
       <c r="G488" s="112"/>
       <c r="H488" s="112" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="I488" s="112"/>
       <c r="J488" s="112"/>
@@ -37356,7 +37689,7 @@
     </row>
     <row r="528" spans="5:10" x14ac:dyDescent="0.15">
       <c r="F528" s="112" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G528" s="112"/>
       <c r="H528" s="112"/>
@@ -37473,10 +37806,10 @@
     </row>
     <row r="2" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B2" s="17" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.15">
@@ -37484,7 +37817,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G3" s="16">
         <v>3</v>
@@ -37495,7 +37828,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G4" s="16">
         <v>1</v>
@@ -37506,7 +37839,7 @@
         <v>3</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G5" s="16">
         <v>0.5</v>
@@ -37517,7 +37850,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G6" s="16">
         <v>0.5</v>
@@ -37528,7 +37861,7 @@
         <v>5</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G7" s="16">
         <v>1</v>
@@ -37536,21 +37869,21 @@
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="K8" s="17" t="s">
+        <v>833</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>834</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>835</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B9" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="M9" s="16">
         <v>1.5</v>
@@ -37558,7 +37891,7 @@
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C10" s="16" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G10" s="16">
         <v>0.5</v>
@@ -37566,7 +37899,7 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C11" s="16" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G11" s="16">
         <v>0.5</v>
@@ -37574,7 +37907,7 @@
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C12" s="16" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G12" s="16">
         <v>1</v>
@@ -37582,12 +37915,12 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.15">
       <c r="B14" s="17" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.15">
       <c r="C15" s="16" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G15" s="16">
         <v>2.5</v>
